--- a/SKV Sheet_Updated PM.xlsx
+++ b/SKV Sheet_Updated PM.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,16 +57,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00C6EFCE"/>
+          <bgColor rgb="00C6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFC7CE"/>
+          <bgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -429,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +536,11 @@
           <t>Highligh</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Diff %</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -541,7 +564,7 @@
       <c r="E2" t="n">
         <v>1761.5</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>45131</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -554,8 +577,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>11.5</v>
       </c>
@@ -571,12 +592,15 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1786.3</v>
+        <v>1788</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
@@ -601,7 +625,7 @@
       <c r="E3" t="n">
         <v>1944.2</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>45068</v>
       </c>
       <c r="G3" t="inlineStr">
@@ -614,8 +638,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>16.70000000000005</v>
       </c>
@@ -631,9 +653,11 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2280.1</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>2273.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15.93</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -657,7 +681,7 @@
       <c r="E4" t="n">
         <v>684.15</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>45068</v>
       </c>
       <c r="G4" t="inlineStr">
@@ -670,8 +694,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>9.149999999999977</v>
       </c>
@@ -687,9 +709,11 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1319.6</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>1306</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>88.37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -713,7 +737,7 @@
       <c r="E5" t="n">
         <v>4854.3</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>45233</v>
       </c>
       <c r="G5" t="inlineStr">
@@ -726,8 +750,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>43</v>
       </c>
@@ -743,9 +765,11 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>7808.5</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>7813.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>59.55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -769,7 +793,7 @@
       <c r="E6" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>45044</v>
       </c>
       <c r="G6" t="inlineStr">
@@ -782,8 +806,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>0.3499999999999943</v>
       </c>
@@ -799,9 +821,11 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>119.73</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>119.69</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>67.98999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -825,7 +849,7 @@
       <c r="E7" t="n">
         <v>6431.2</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>45287</v>
       </c>
       <c r="G7" t="inlineStr">
@@ -838,8 +862,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>44.60000000000036</v>
       </c>
@@ -855,9 +877,11 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>8248.5</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
+        <v>8224</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -881,7 +905,7 @@
       <c r="E8" t="n">
         <v>4832.8</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>45184</v>
       </c>
       <c r="G8" t="inlineStr">
@@ -894,8 +918,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>32.59999999999945</v>
       </c>
@@ -911,9 +933,11 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>8248.5</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
+        <v>8224</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>69.03</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -937,7 +961,7 @@
       <c r="E9" t="n">
         <v>8309.200000000001</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>45863</v>
       </c>
       <c r="G9" t="inlineStr">
@@ -950,8 +974,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>-29.30000000000109</v>
       </c>
@@ -967,12 +989,15 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>8248.5</v>
+        <v>8224</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.68</v>
       </c>
     </row>
     <row r="10">
@@ -997,7 +1022,7 @@
       <c r="E10" t="n">
         <v>1353.4</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>45054</v>
       </c>
       <c r="G10" t="inlineStr">
@@ -1010,8 +1035,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>10.09999999999991</v>
       </c>
@@ -1027,9 +1050,11 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1914.4</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
+        <v>1917.8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>40.65</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1053,7 +1078,7 @@
       <c r="E11" t="n">
         <v>300.7</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>45447</v>
       </c>
       <c r="G11" t="inlineStr">
@@ -1066,8 +1091,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>-5.349999999999966</v>
       </c>
@@ -1083,9 +1106,11 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>241.81</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
+        <v>242.12</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-18.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1109,7 +1134,7 @@
       <c r="E12" t="n">
         <v>234.4</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>45873</v>
       </c>
       <c r="G12" t="inlineStr">
@@ -1122,8 +1147,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>0.6999999999999886</v>
       </c>
@@ -1139,9 +1162,11 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>241.81</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
+        <v>242.12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1165,7 +1190,7 @@
       <c r="E13" t="n">
         <v>348.45</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>45793</v>
       </c>
       <c r="G13" t="inlineStr">
@@ -1178,8 +1203,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>3.050000000000011</v>
       </c>
@@ -1195,9 +1218,11 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>387.95</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
+        <v>384.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>9.32</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1221,7 +1246,7 @@
       <c r="E14" t="n">
         <v>319.9</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>45790</v>
       </c>
       <c r="G14" t="inlineStr">
@@ -1234,8 +1259,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>3.400000000000034</v>
       </c>
@@ -1251,9 +1274,11 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>387.95</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
+        <v>384.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>18.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1277,7 +1302,7 @@
       <c r="E15" t="n">
         <v>209.75</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="G15" t="inlineStr">
@@ -1290,8 +1315,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>2.949999999999989</v>
       </c>
@@ -1307,9 +1330,11 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>387.95</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
+        <v>384.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>80.65000000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1333,7 +1358,7 @@
       <c r="E16" t="n">
         <v>428.6</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>45845</v>
       </c>
       <c r="G16" t="inlineStr">
@@ -1346,8 +1371,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>-1.900000000000034</v>
       </c>
@@ -1363,9 +1386,11 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>387.95</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
+        <v>384.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-9.949999999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1389,7 +1414,7 @@
       <c r="E17" t="n">
         <v>375.7</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>45873</v>
       </c>
       <c r="G17" t="inlineStr">
@@ -1407,7 +1432,6 @@
           <t>15 m pr bhi same zone h</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>1.800000000000011</v>
       </c>
@@ -1423,12 +1447,15 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>387.95</v>
+        <v>384.25</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="18">
@@ -1453,7 +1480,7 @@
       <c r="E18" t="n">
         <v>1388.7</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="3" t="n">
         <v>45638</v>
       </c>
       <c r="G18" t="inlineStr">
@@ -1466,8 +1493,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>-12.45000000000005</v>
       </c>
@@ -1483,9 +1508,11 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1181.5</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
+        <v>1179</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-14.33</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1509,7 +1536,7 @@
       <c r="E19" t="n">
         <v>1462.5</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="3" t="n">
         <v>45526</v>
       </c>
       <c r="G19" t="inlineStr">
@@ -1522,8 +1549,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>4.400000000000091</v>
       </c>
@@ -1539,9 +1564,11 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>1867.4</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
+        <v>1869.3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>27.43</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1565,7 +1592,7 @@
       <c r="E20" t="n">
         <v>839.5</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>45099</v>
       </c>
       <c r="G20" t="inlineStr">
@@ -1578,8 +1605,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>4.5</v>
       </c>
@@ -1595,9 +1620,11 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>1867.4</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+        <v>1869.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>121.48</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1621,7 +1648,7 @@
       <c r="E21" t="n">
         <v>295.9</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="3" t="n">
         <v>45533</v>
       </c>
       <c r="G21" t="inlineStr">
@@ -1634,8 +1661,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>-2.049999999999955</v>
       </c>
@@ -1651,9 +1676,11 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>223.99</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
+        <v>223.38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-23.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1677,7 +1704,7 @@
       <c r="E22" t="n">
         <v>100.4</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="G22" t="inlineStr">
@@ -1690,8 +1717,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>0.6999999999999886</v>
       </c>
@@ -1707,9 +1732,11 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>223.99</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
+        <v>223.38</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>120.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1733,7 +1760,7 @@
       <c r="E23" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="3" t="n">
         <v>45112</v>
       </c>
       <c r="G23" t="inlineStr">
@@ -1746,8 +1773,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>0.7999999999999972</v>
       </c>
@@ -1763,9 +1788,11 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>223.99</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
+        <v>223.38</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>156.17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1789,7 +1816,7 @@
       <c r="E24" t="n">
         <v>174.1</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="3" t="n">
         <v>45231</v>
       </c>
       <c r="G24" t="inlineStr">
@@ -1802,8 +1829,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>0.9000000000000057</v>
       </c>
@@ -1819,9 +1844,11 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>322.5</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
+        <v>323.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>84.73999999999999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1845,7 +1872,7 @@
       <c r="E25" t="n">
         <v>1370</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="G25" t="inlineStr">
@@ -1858,8 +1885,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>15.25</v>
       </c>
@@ -1875,9 +1900,11 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2496.4</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
+        <v>2491.2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>79.84</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1901,7 +1928,7 @@
       <c r="E26" t="n">
         <v>439.2</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="3" t="n">
         <v>45205</v>
       </c>
       <c r="G26" t="inlineStr">
@@ -1914,8 +1941,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>3.900000000000034</v>
       </c>
@@ -1931,9 +1956,11 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2496.4</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
+        <v>2491.2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>462.22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1957,7 +1984,7 @@
       <c r="E27" t="n">
         <v>2498</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="3" t="n">
         <v>45874</v>
       </c>
       <c r="G27" t="inlineStr">
@@ -1970,8 +1997,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>-8</v>
       </c>
@@ -1987,9 +2012,11 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2496.4</v>
-      </c>
-      <c r="P27" t="inlineStr"/>
+        <v>2491.2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2013,7 +2040,7 @@
       <c r="E28" t="n">
         <v>138.4</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="G28" t="inlineStr">
@@ -2026,8 +2053,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>1.299999999999983</v>
       </c>
@@ -2043,9 +2068,11 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2496.4</v>
-      </c>
-      <c r="P28" t="inlineStr"/>
+        <v>2491.2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1683.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2069,7 +2096,7 @@
       <c r="E29" t="n">
         <v>104.5</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="3" t="n">
         <v>45828</v>
       </c>
       <c r="G29" t="inlineStr">
@@ -2082,8 +2109,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>0.5999999999999943</v>
       </c>
@@ -2099,9 +2124,11 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>108.99</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
+        <v>108.76</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2125,7 +2152,7 @@
       <c r="E30" t="n">
         <v>129.4</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="3" t="n">
         <v>45447</v>
       </c>
       <c r="G30" t="inlineStr">
@@ -2138,8 +2165,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>-2.200000000000003</v>
       </c>
@@ -2155,9 +2180,11 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>108.99</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
+        <v>108.76</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-14.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2181,7 +2208,7 @@
       <c r="E31" t="n">
         <v>71.3</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="3" t="n">
         <v>45226</v>
       </c>
       <c r="G31" t="inlineStr">
@@ -2194,8 +2221,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>0.9500000000000028</v>
       </c>
@@ -2211,9 +2236,11 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>108.99</v>
-      </c>
-      <c r="P31" t="inlineStr"/>
+        <v>108.76</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>50.53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2237,7 +2264,7 @@
       <c r="E32" t="n">
         <v>105.5</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="3" t="n">
         <v>45873</v>
       </c>
       <c r="G32" t="inlineStr">
@@ -2250,8 +2277,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>0.5</v>
       </c>
@@ -2267,9 +2292,11 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>108.99</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
+        <v>108.76</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2293,7 +2320,7 @@
       <c r="E33" t="n">
         <v>1106.9</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="3" t="n">
         <v>45485</v>
       </c>
       <c r="G33" t="inlineStr">
@@ -2306,8 +2333,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>17.39999999999986</v>
       </c>
@@ -2323,9 +2348,11 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1621.7</v>
-      </c>
-      <c r="P33" t="inlineStr"/>
+        <v>1631.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>45.11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2349,7 +2376,7 @@
       <c r="E34" t="n">
         <v>855.5</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="3" t="n">
         <v>45422</v>
       </c>
       <c r="G34" t="inlineStr">
@@ -2362,8 +2389,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>6.399999999999977</v>
       </c>
@@ -2379,9 +2404,11 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1621.7</v>
-      </c>
-      <c r="P34" t="inlineStr"/>
+        <v>1631.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>89.29000000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2405,7 +2432,7 @@
       <c r="E35" t="n">
         <v>3010</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="3" t="n">
         <v>45625</v>
       </c>
       <c r="G35" t="inlineStr">
@@ -2418,8 +2445,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>-15</v>
       </c>
@@ -2435,9 +2460,11 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2171.7</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
+        <v>2177.8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-27.29</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2461,7 +2488,7 @@
       <c r="E36" t="n">
         <v>974.5</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="G36" t="inlineStr">
@@ -2474,8 +2501,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>7</v>
       </c>
@@ -2491,9 +2516,11 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2257.7</v>
-      </c>
-      <c r="P36" t="inlineStr"/>
+        <v>2297.3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>134.06</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2517,7 +2544,7 @@
       <c r="E37" t="n">
         <v>3902.2</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="3" t="n">
         <v>45568</v>
       </c>
       <c r="G37" t="inlineStr">
@@ -2530,8 +2557,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>-50.29999999999973</v>
       </c>
@@ -2547,12 +2572,15 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>3792.1</v>
+        <v>3786.3</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="38">
@@ -2577,7 +2605,7 @@
       <c r="E38" t="n">
         <v>2025.9</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="3" t="n">
         <v>45310</v>
       </c>
       <c r="G38" t="inlineStr">
@@ -2590,8 +2618,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>8.099999999999909</v>
       </c>
@@ -2607,9 +2633,11 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>3792.1</v>
-      </c>
-      <c r="P38" t="inlineStr"/>
+        <v>3786.3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>86.15000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2633,7 +2661,7 @@
       <c r="E39" t="n">
         <v>7012.5</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="3" t="n">
         <v>45848</v>
       </c>
       <c r="G39" t="inlineStr">
@@ -2646,8 +2674,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>-40.5</v>
       </c>
@@ -2663,9 +2689,11 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>6100.5</v>
-      </c>
-      <c r="P39" t="inlineStr"/>
+        <v>6168</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-11.53</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2689,7 +2717,7 @@
       <c r="E40" t="n">
         <v>1015.15</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="G40" t="inlineStr">
@@ -2702,8 +2730,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>3.550000000000068</v>
       </c>
@@ -2719,9 +2745,11 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1253.4</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
+        <v>1262.6</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>23.94</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2745,7 +2773,7 @@
       <c r="E41" t="n">
         <v>908.9</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="3" t="n">
         <v>45079</v>
       </c>
       <c r="G41" t="inlineStr">
@@ -2758,8 +2786,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>2.300000000000068</v>
       </c>
@@ -2775,9 +2801,11 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1253.4</v>
-      </c>
-      <c r="P41" t="inlineStr"/>
+        <v>1262.6</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>38.56</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2801,7 +2829,7 @@
       <c r="E42" t="n">
         <v>2834</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="3" t="n">
         <v>45014</v>
       </c>
       <c r="G42" t="inlineStr">
@@ -2814,8 +2842,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>21.5</v>
       </c>
@@ -2831,9 +2857,11 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>5714.5</v>
-      </c>
-      <c r="P42" t="inlineStr"/>
+        <v>5718</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>100.25</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2857,7 +2885,7 @@
       <c r="E43" t="n">
         <v>179.8</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="G43" t="inlineStr">
@@ -2870,8 +2898,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>0.7999999999999829</v>
       </c>
@@ -2887,9 +2913,11 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>196.19</v>
-      </c>
-      <c r="P43" t="inlineStr"/>
+        <v>196.16</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>8.619999999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2913,7 +2941,7 @@
       <c r="E44" t="n">
         <v>121.45</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="G44" t="inlineStr">
@@ -2926,8 +2954,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>1.049999999999997</v>
       </c>
@@ -2943,9 +2969,11 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>196.19</v>
-      </c>
-      <c r="P44" t="inlineStr"/>
+        <v>196.16</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>60.13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2969,7 +2997,7 @@
       <c r="E45" t="n">
         <v>138.25</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="3" t="n">
         <v>45282</v>
       </c>
       <c r="G45" t="inlineStr">
@@ -2982,8 +3010,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>2.849999999999994</v>
       </c>
@@ -2999,9 +3025,11 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>173.36</v>
-      </c>
-      <c r="P45" t="inlineStr"/>
+        <v>172.88</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>22.52</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3025,7 +3053,7 @@
       <c r="E46" t="n">
         <v>114.6</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="3" t="n">
         <v>45170</v>
       </c>
       <c r="G46" t="inlineStr">
@@ -3038,8 +3066,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>0.9500000000000028</v>
       </c>
@@ -3055,9 +3081,11 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>173.36</v>
-      </c>
-      <c r="P46" t="inlineStr"/>
+        <v>172.88</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>49.61</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3081,7 +3109,7 @@
       <c r="E47" t="n">
         <v>193.4</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="3" t="n">
         <v>45847</v>
       </c>
       <c r="G47" t="inlineStr">
@@ -3094,8 +3122,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>-1.099999999999994</v>
       </c>
@@ -3111,9 +3137,11 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>173.36</v>
-      </c>
-      <c r="P47" t="inlineStr"/>
+        <v>172.88</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-10.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3137,7 +3165,7 @@
       <c r="E48" t="n">
         <v>1047.55</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="3" t="n">
         <v>45734</v>
       </c>
       <c r="G48" t="inlineStr">
@@ -3150,8 +3178,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>9.950000000000045</v>
       </c>
@@ -3167,9 +3193,11 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1198.8</v>
-      </c>
-      <c r="P48" t="inlineStr"/>
+        <v>1196.6</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>13.15</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3193,7 +3221,7 @@
       <c r="E49" t="n">
         <v>1657.2</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="3" t="n">
         <v>45232</v>
       </c>
       <c r="G49" t="inlineStr">
@@ -3206,8 +3234,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>12.20000000000005</v>
       </c>
@@ -3223,9 +3249,11 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>1960.1</v>
-      </c>
-      <c r="P49" t="inlineStr"/>
+        <v>1961.5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3249,7 +3277,7 @@
       <c r="E50" t="n">
         <v>5335.2</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="3" t="n">
         <v>45491</v>
       </c>
       <c r="G50" t="inlineStr">
@@ -3262,8 +3290,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>-28.55000000000018</v>
       </c>
@@ -3279,9 +3305,11 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>4524.4</v>
-      </c>
-      <c r="P50" t="inlineStr"/>
+        <v>4498</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-15.24</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3305,7 +3333,7 @@
       <c r="E51" t="n">
         <v>1096.3</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="3" t="n">
         <v>44929</v>
       </c>
       <c r="G51" t="inlineStr">
@@ -3318,8 +3346,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>6.700000000000045</v>
       </c>
@@ -3335,9 +3361,11 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>1465.9</v>
-      </c>
-      <c r="P51" t="inlineStr"/>
+        <v>1474</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>33.64</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3361,7 +3389,7 @@
       <c r="E52" t="n">
         <v>3223.1</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="3" t="n">
         <v>45295</v>
       </c>
       <c r="G52" t="inlineStr">
@@ -3374,8 +3402,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>23.90000000000009</v>
       </c>
@@ -3391,9 +3417,11 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>5481.5</v>
-      </c>
-      <c r="P52" t="inlineStr"/>
+        <v>5490.5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>69.09</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3417,7 +3445,7 @@
       <c r="E53" t="n">
         <v>1755.9</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="G53" t="inlineStr">
@@ -3430,8 +3458,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>10.09999999999991</v>
       </c>
@@ -3447,9 +3473,11 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>5481.5</v>
-      </c>
-      <c r="P53" t="inlineStr"/>
+        <v>5490.5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>210.9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3473,7 +3501,7 @@
       <c r="E54" t="n">
         <v>4986</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="3" t="n">
         <v>45846</v>
       </c>
       <c r="G54" t="inlineStr">
@@ -3486,8 +3514,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>21</v>
       </c>
@@ -3503,9 +3529,11 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>5481.5</v>
-      </c>
-      <c r="P54" t="inlineStr"/>
+        <v>5490.5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>9.66</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3529,7 +3557,7 @@
       <c r="E55" t="n">
         <v>463</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="3" t="n">
         <v>45006</v>
       </c>
       <c r="G55" t="inlineStr">
@@ -3542,8 +3570,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>3</v>
       </c>
@@ -3559,9 +3585,11 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>776.6</v>
-      </c>
-      <c r="P55" t="inlineStr"/>
+        <v>787.85</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>69.06999999999999</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3585,7 +3613,7 @@
       <c r="E56" t="n">
         <v>3164.9</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="3" t="n">
         <v>45246</v>
       </c>
       <c r="G56" t="inlineStr">
@@ -3598,8 +3626,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>13.29999999999973</v>
       </c>
@@ -3615,9 +3641,11 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>4768.7</v>
-      </c>
-      <c r="P56" t="inlineStr"/>
+        <v>4741.6</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>49.19</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3641,7 +3669,7 @@
       <c r="E57" t="n">
         <v>314</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="3" t="n">
         <v>45721</v>
       </c>
       <c r="G57" t="inlineStr">
@@ -3654,8 +3682,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>2</v>
       </c>
@@ -3671,9 +3697,11 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>400.6</v>
-      </c>
-      <c r="P57" t="inlineStr"/>
+        <v>398.3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>26.04</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3697,7 +3725,7 @@
       <c r="E58" t="n">
         <v>2337.1</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="3" t="n">
         <v>45845</v>
       </c>
       <c r="G58" t="inlineStr">
@@ -3710,8 +3738,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>5.5</v>
       </c>
@@ -3727,9 +3753,11 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>2495.1</v>
-      </c>
-      <c r="P58" t="inlineStr"/>
+        <v>2494</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>6.46</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3753,7 +3781,7 @@
       <c r="E59" t="n">
         <v>1207</v>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="3" t="n">
         <v>45727</v>
       </c>
       <c r="G59" t="inlineStr">
@@ -3766,8 +3794,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>10</v>
       </c>
@@ -3783,9 +3809,11 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>1420.8</v>
-      </c>
-      <c r="P59" t="inlineStr"/>
+        <v>1423.8</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>16.99</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3809,7 +3837,7 @@
       <c r="E60" t="n">
         <v>574.05</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="3" t="n">
         <v>45495</v>
       </c>
       <c r="G60" t="inlineStr">
@@ -3822,8 +3850,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>4.950000000000045</v>
       </c>
@@ -3839,9 +3865,11 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>769.8</v>
-      </c>
-      <c r="P60" t="inlineStr"/>
+        <v>764.85</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3865,7 +3893,7 @@
       <c r="E61" t="n">
         <v>351.9</v>
       </c>
-      <c r="F61" s="2" t="n">
+      <c r="F61" s="3" t="n">
         <v>45062</v>
       </c>
       <c r="G61" t="inlineStr">
@@ -3878,8 +3906,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>2.100000000000023</v>
       </c>
@@ -3895,9 +3921,11 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>769.8</v>
-      </c>
-      <c r="P61" t="inlineStr"/>
+        <v>764.85</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>116.06</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3921,7 +3949,7 @@
       <c r="E62" t="n">
         <v>619</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="3" t="n">
         <v>45495</v>
       </c>
       <c r="G62" t="inlineStr">
@@ -3934,8 +3962,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>3.600000000000023</v>
       </c>
@@ -3951,9 +3977,11 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>769.8</v>
-      </c>
-      <c r="P62" t="inlineStr"/>
+        <v>764.85</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>22.85</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3977,7 +4005,7 @@
       <c r="E63" t="n">
         <v>723.9</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="3" t="n">
         <v>45853</v>
       </c>
       <c r="G63" t="inlineStr">
@@ -3990,8 +4018,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>3.899999999999977</v>
       </c>
@@ -4007,12 +4033,15 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>769.8</v>
+        <v>764.85</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="64">
@@ -4037,7 +4066,7 @@
       <c r="E64" t="n">
         <v>685</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="3" t="n">
         <v>45762</v>
       </c>
       <c r="G64" t="inlineStr">
@@ -4050,8 +4079,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>9.5</v>
       </c>
@@ -4067,9 +4094,11 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>773.45</v>
-      </c>
-      <c r="P64" t="inlineStr"/>
+        <v>776</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>11.74</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4093,7 +4122,7 @@
       <c r="E65" t="n">
         <v>1484</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="3" t="n">
         <v>45874</v>
       </c>
       <c r="G65" t="inlineStr">
@@ -4106,8 +4135,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>-5</v>
       </c>
@@ -4123,9 +4150,11 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>1426.6</v>
-      </c>
-      <c r="P65" t="inlineStr"/>
+        <v>1445.1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-2.29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4149,7 +4178,7 @@
       <c r="E66" t="n">
         <v>941</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="3" t="n">
         <v>45873</v>
       </c>
       <c r="G66" t="inlineStr">
@@ -4162,8 +4191,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>6.799999999999955</v>
       </c>
@@ -4179,9 +4206,11 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>996.35</v>
-      </c>
-      <c r="P66" t="inlineStr"/>
+        <v>975.95</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.97</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4205,7 +4234,7 @@
       <c r="E67" t="n">
         <v>306.2</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="3" t="n">
         <v>45867</v>
       </c>
       <c r="G67" t="inlineStr">
@@ -4218,8 +4247,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>1.300000000000011</v>
       </c>
@@ -4235,9 +4262,11 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>330.6</v>
-      </c>
-      <c r="P67" t="inlineStr"/>
+        <v>328.5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>6.83</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4261,7 +4290,7 @@
       <c r="E68" t="n">
         <v>477.4</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="3" t="n">
         <v>45828</v>
       </c>
       <c r="G68" t="inlineStr">
@@ -4274,8 +4303,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>3.600000000000023</v>
       </c>
@@ -4291,9 +4318,11 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>535</v>
-      </c>
-      <c r="P68" t="inlineStr"/>
+        <v>528.9</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>9.960000000000001</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4317,7 +4346,7 @@
       <c r="E69" t="n">
         <v>880</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="G69" t="inlineStr">
@@ -4330,8 +4359,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>7</v>
       </c>
@@ -4347,9 +4374,11 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>1053.7</v>
-      </c>
-      <c r="P69" t="inlineStr"/>
+        <v>1048.3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>18.18</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4373,7 +4402,7 @@
       <c r="E70" t="n">
         <v>178.3</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="3" t="n">
         <v>45149</v>
       </c>
       <c r="G70" t="inlineStr">
@@ -4386,8 +4415,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>3.799999999999983</v>
       </c>
@@ -4403,9 +4430,11 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>515.65</v>
-      </c>
-      <c r="P70" t="inlineStr"/>
+        <v>513.35</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>181.91</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4429,7 +4458,7 @@
       <c r="E71" t="n">
         <v>1331.4</v>
       </c>
-      <c r="F71" s="2" t="n">
+      <c r="F71" s="3" t="n">
         <v>45863</v>
       </c>
       <c r="G71" t="inlineStr">
@@ -4442,8 +4471,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>-9.400000000000091</v>
       </c>
@@ -4459,9 +4486,11 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>1225.8</v>
-      </c>
-      <c r="P71" t="inlineStr"/>
+        <v>1231.8</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-6.82</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4485,7 +4514,7 @@
       <c r="E72" t="n">
         <v>2724</v>
       </c>
-      <c r="F72" s="2" t="n">
+      <c r="F72" s="3" t="n">
         <v>45176</v>
       </c>
       <c r="G72" t="inlineStr">
@@ -4498,8 +4527,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>8</v>
       </c>
@@ -4515,9 +4542,11 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>3693.7</v>
-      </c>
-      <c r="P72" t="inlineStr"/>
+        <v>3685</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>34.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4541,7 +4570,7 @@
       <c r="E73" t="n">
         <v>10395</v>
       </c>
-      <c r="F73" s="2" t="n">
+      <c r="F73" s="3" t="n">
         <v>45328</v>
       </c>
       <c r="G73" t="inlineStr">
@@ -4554,8 +4583,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>55</v>
       </c>
@@ -4571,9 +4598,11 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>12834</v>
-      </c>
-      <c r="P73" t="inlineStr"/>
+        <v>12928</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>23.71</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4597,7 +4626,7 @@
       <c r="E74" t="n">
         <v>1013</v>
       </c>
-      <c r="F74" s="2" t="n">
+      <c r="F74" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="G74" t="inlineStr">
@@ -4610,8 +4639,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>9</v>
       </c>
@@ -4627,9 +4654,11 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1267.1</v>
-      </c>
-      <c r="P74" t="inlineStr"/>
+        <v>1231.7</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>20.52</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4653,7 +4682,7 @@
       <c r="E75" t="n">
         <v>3022.3</v>
       </c>
-      <c r="F75" s="2" t="n">
+      <c r="F75" s="3" t="n">
         <v>45687</v>
       </c>
       <c r="G75" t="inlineStr">
@@ -4666,8 +4695,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>-24.15000000000009</v>
       </c>
@@ -4683,9 +4710,11 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>2695.2</v>
-      </c>
-      <c r="P75" t="inlineStr"/>
+        <v>2709.7</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-9.619999999999999</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4709,7 +4738,7 @@
       <c r="E76" t="n">
         <v>1916.4</v>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="F76" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="G76" t="inlineStr">
@@ -4722,8 +4751,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>15.59999999999991</v>
       </c>
@@ -4739,9 +4766,11 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>2695.2</v>
-      </c>
-      <c r="P76" t="inlineStr"/>
+        <v>2709.7</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>40.25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4765,7 +4794,7 @@
       <c r="E77" t="n">
         <v>260.35</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F77" s="3" t="n">
         <v>45261</v>
       </c>
       <c r="G77" t="inlineStr">
@@ -4778,8 +4807,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>1.349999999999966</v>
       </c>
@@ -4795,9 +4822,11 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>339.95</v>
-      </c>
-      <c r="P77" t="inlineStr"/>
+        <v>337</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>28.77</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4821,7 +4850,7 @@
       <c r="E78" t="n">
         <v>2138.2</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" s="3" t="n">
         <v>45670</v>
       </c>
       <c r="G78" t="inlineStr">
@@ -4834,8 +4863,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>-16.09999999999991</v>
       </c>
@@ -4851,9 +4878,11 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1626.7</v>
-      </c>
-      <c r="P78" t="inlineStr"/>
+        <v>1616.3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>-23.83</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4877,7 +4906,7 @@
       <c r="E79" t="n">
         <v>183.45</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="G79" t="inlineStr">
@@ -4890,8 +4919,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>1.050000000000011</v>
       </c>
@@ -4907,9 +4934,11 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>407</v>
-      </c>
-      <c r="P79" t="inlineStr"/>
+        <v>399.45</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4933,7 +4962,7 @@
       <c r="E80" t="n">
         <v>285.3</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" s="3" t="n">
         <v>45586</v>
       </c>
       <c r="G80" t="inlineStr">
@@ -4946,8 +4975,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>-2.900000000000034</v>
       </c>
@@ -4963,9 +4990,11 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>238.67</v>
-      </c>
-      <c r="P80" t="inlineStr"/>
+        <v>234.6</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-16.93</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4989,7 +5018,7 @@
       <c r="E81" t="n">
         <v>5669.2</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="3" t="n">
         <v>45862</v>
       </c>
       <c r="G81" t="inlineStr">
@@ -5002,8 +5031,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>-54</v>
       </c>
@@ -5019,9 +5046,11 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>5247.5</v>
-      </c>
-      <c r="P81" t="inlineStr"/>
+        <v>5265.5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>-6.23</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5045,7 +5074,7 @@
       <c r="E82" t="n">
         <v>560</v>
       </c>
-      <c r="F82" s="2" t="n">
+      <c r="F82" s="3" t="n">
         <v>45541</v>
       </c>
       <c r="G82" t="inlineStr">
@@ -5058,8 +5087,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>-3.200000000000045</v>
       </c>
@@ -5075,9 +5102,11 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>417.75</v>
-      </c>
-      <c r="P82" t="inlineStr"/>
+        <v>415.65</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>-25.35</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5101,7 +5130,7 @@
       <c r="E83" t="n">
         <v>180.55</v>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="F83" s="3" t="n">
         <v>45131</v>
       </c>
       <c r="G83" t="inlineStr">
@@ -5114,8 +5143,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>1.849999999999994</v>
       </c>
@@ -5131,9 +5158,11 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>417.75</v>
-      </c>
-      <c r="P83" t="inlineStr"/>
+        <v>415.65</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>127.88</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5157,7 +5186,7 @@
       <c r="E84" t="n">
         <v>296.8</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" s="3" t="n">
         <v>45868</v>
       </c>
       <c r="G84" t="inlineStr">
@@ -5170,8 +5199,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>-1.800000000000011</v>
       </c>
@@ -5187,9 +5214,11 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="P84" t="inlineStr"/>
+        <v>287.2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>-2.64</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5213,7 +5242,7 @@
       <c r="E85" t="n">
         <v>421</v>
       </c>
-      <c r="F85" s="2" t="n">
+      <c r="F85" s="3" t="n">
         <v>45820</v>
       </c>
       <c r="G85" t="inlineStr">
@@ -5226,8 +5255,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>-2.5</v>
       </c>
@@ -5243,9 +5270,11 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>384.55</v>
-      </c>
-      <c r="P85" t="inlineStr"/>
+        <v>382.55</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>-8.59</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5269,7 +5298,7 @@
       <c r="E86" t="n">
         <v>609.9</v>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F86" s="3" t="n">
         <v>45544</v>
       </c>
       <c r="G86" t="inlineStr">
@@ -5282,8 +5311,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>-4.100000000000023</v>
       </c>
@@ -5299,9 +5326,11 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>384.55</v>
-      </c>
-      <c r="P86" t="inlineStr"/>
+        <v>382.55</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>-36.85</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5325,7 +5354,7 @@
       <c r="E87" t="n">
         <v>347.1</v>
       </c>
-      <c r="F87" s="2" t="n">
+      <c r="F87" s="3" t="n">
         <v>45261</v>
       </c>
       <c r="G87" t="inlineStr">
@@ -5338,8 +5367,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>4</v>
       </c>
@@ -5355,9 +5382,11 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>384.55</v>
-      </c>
-      <c r="P87" t="inlineStr"/>
+        <v>382.55</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>8.960000000000001</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5381,7 +5410,7 @@
       <c r="E88" t="n">
         <v>1553</v>
       </c>
-      <c r="F88" s="2" t="n">
+      <c r="F88" s="3" t="n">
         <v>45847</v>
       </c>
       <c r="G88" t="inlineStr">
@@ -5394,8 +5423,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>-7</v>
       </c>
@@ -5411,9 +5438,11 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>1377.1</v>
-      </c>
-      <c r="P88" t="inlineStr"/>
+        <v>1377.7</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>-10.89</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5437,7 +5466,7 @@
       <c r="E89" t="n">
         <v>119.5</v>
       </c>
-      <c r="F89" s="2" t="n">
+      <c r="F89" s="3" t="n">
         <v>45873</v>
       </c>
       <c r="G89" t="inlineStr">
@@ -5450,8 +5479,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>0.9000000000000057</v>
       </c>
@@ -5467,12 +5494,15 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>124.05</v>
+        <v>121.73</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="90">
@@ -5497,7 +5527,7 @@
       <c r="E90" t="n">
         <v>137.2</v>
       </c>
-      <c r="F90" s="2" t="n">
+      <c r="F90" s="3" t="n">
         <v>45863</v>
       </c>
       <c r="G90" t="inlineStr">
@@ -5510,8 +5540,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>-1.299999999999983</v>
       </c>
@@ -5527,9 +5555,11 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>124.05</v>
-      </c>
-      <c r="P90" t="inlineStr"/>
+        <v>121.73</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>-10.43</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5553,7 +5583,7 @@
       <c r="E91" t="n">
         <v>674.5</v>
       </c>
-      <c r="F91" s="2" t="n">
+      <c r="F91" s="3" t="n">
         <v>45659</v>
       </c>
       <c r="G91" t="inlineStr">
@@ -5566,8 +5596,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>4</v>
       </c>
@@ -5583,9 +5611,11 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>790.1</v>
-      </c>
-      <c r="P91" t="inlineStr"/>
+        <v>792.8</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>16.85</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5609,7 +5639,7 @@
       <c r="E92" t="n">
         <v>911</v>
       </c>
-      <c r="F92" s="2" t="n">
+      <c r="F92" s="3" t="n">
         <v>45856</v>
       </c>
       <c r="G92" t="inlineStr">
@@ -5622,8 +5652,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>-2.899999999999977</v>
       </c>
@@ -5639,9 +5667,11 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>790.1</v>
-      </c>
-      <c r="P92" t="inlineStr"/>
+        <v>792.8</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>-12.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5665,7 +5695,7 @@
       <c r="E93" t="n">
         <v>1746.5</v>
       </c>
-      <c r="F93" s="2" t="n">
+      <c r="F93" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="G93" t="inlineStr">
@@ -5678,8 +5708,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>9.5</v>
       </c>
@@ -5695,9 +5723,11 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>1840.3</v>
-      </c>
-      <c r="P93" t="inlineStr"/>
+        <v>1845.3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5.09</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5721,7 +5751,7 @@
       <c r="E94" t="n">
         <v>1201</v>
       </c>
-      <c r="F94" s="2" t="n">
+      <c r="F94" s="3" t="n">
         <v>45568</v>
       </c>
       <c r="G94" t="inlineStr">
@@ -5734,8 +5764,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>-8</v>
       </c>
@@ -5751,9 +5779,11 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>1056.1</v>
-      </c>
-      <c r="P94" t="inlineStr"/>
+        <v>1054.9</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>-11.58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5777,7 +5807,7 @@
       <c r="E95" t="n">
         <v>780.45</v>
       </c>
-      <c r="F95" s="2" t="n">
+      <c r="F95" s="3" t="n">
         <v>45084</v>
       </c>
       <c r="G95" t="inlineStr">
@@ -5790,8 +5820,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>2.549999999999955</v>
       </c>
@@ -5807,9 +5835,11 @@
         </is>
       </c>
       <c r="O95" t="n">
-        <v>1056.1</v>
-      </c>
-      <c r="P95" t="inlineStr"/>
+        <v>1054.9</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>34.73</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5833,7 +5863,7 @@
       <c r="E96" t="n">
         <v>715.5</v>
       </c>
-      <c r="F96" s="2" t="n">
+      <c r="F96" s="3" t="n">
         <v>45824</v>
       </c>
       <c r="G96" t="inlineStr">
@@ -5846,8 +5876,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>-4.399999999999977</v>
       </c>
@@ -5863,9 +5891,11 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>663.75</v>
-      </c>
-      <c r="P96" t="inlineStr"/>
+        <v>661.5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>-6.98</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5889,7 +5919,7 @@
       <c r="E97" t="n">
         <v>889.25</v>
       </c>
-      <c r="F97" s="2" t="n">
+      <c r="F97" s="3" t="n">
         <v>45594</v>
       </c>
       <c r="G97" t="inlineStr">
@@ -5902,8 +5932,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>-12.25</v>
       </c>
@@ -5919,9 +5947,11 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>663.75</v>
-      </c>
-      <c r="P97" t="inlineStr"/>
+        <v>661.5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>-24.57</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5945,7 +5975,7 @@
       <c r="E98" t="n">
         <v>475.2</v>
       </c>
-      <c r="F98" s="2" t="n">
+      <c r="F98" s="3" t="n">
         <v>45054</v>
       </c>
       <c r="G98" t="inlineStr">
@@ -5958,8 +5988,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>3</v>
       </c>
@@ -5975,9 +6003,11 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>663.75</v>
-      </c>
-      <c r="P98" t="inlineStr"/>
+        <v>661.5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>38.33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6001,7 +6031,7 @@
       <c r="E99" t="n">
         <v>369.25</v>
       </c>
-      <c r="F99" s="2" t="n">
+      <c r="F99" s="3" t="n">
         <v>45789</v>
       </c>
       <c r="G99" t="inlineStr">
@@ -6014,8 +6044,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>3.25</v>
       </c>
@@ -6031,9 +6059,11 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>387.2</v>
-      </c>
-      <c r="P99" t="inlineStr"/>
+        <v>384</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6057,7 +6087,7 @@
       <c r="E100" t="n">
         <v>152.3</v>
       </c>
-      <c r="F100" s="2" t="n">
+      <c r="F100" s="3" t="n">
         <v>45873</v>
       </c>
       <c r="G100" t="inlineStr">
@@ -6070,8 +6100,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>1.199999999999989</v>
       </c>
@@ -6087,9 +6115,11 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>160.18</v>
-      </c>
-      <c r="P100" t="inlineStr"/>
+        <v>157.13</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6113,7 +6143,7 @@
       <c r="E101" t="n">
         <v>122.45</v>
       </c>
-      <c r="F101" s="2" t="n">
+      <c r="F101" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="G101" t="inlineStr">
@@ -6126,8 +6156,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>0.8499999999999943</v>
       </c>
@@ -6143,9 +6171,11 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>160.18</v>
-      </c>
-      <c r="P101" t="inlineStr"/>
+        <v>157.13</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>27.44</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6169,7 +6199,7 @@
       <c r="E102" t="n">
         <v>1615</v>
       </c>
-      <c r="F102" s="2" t="n">
+      <c r="F102" s="3" t="n">
         <v>45855</v>
       </c>
       <c r="G102" t="inlineStr">
@@ -6182,8 +6212,6 @@
           <t>Doubt Zone</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>-10</v>
       </c>
@@ -6199,9 +6227,11 @@
         </is>
       </c>
       <c r="O102" t="n">
-        <v>1506.3</v>
-      </c>
-      <c r="P102" t="inlineStr"/>
+        <v>1504.3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>-6.27</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6225,7 +6255,7 @@
       <c r="E103" t="n">
         <v>2515</v>
       </c>
-      <c r="F103" s="2" t="n">
+      <c r="F103" s="3" t="n">
         <v>45422</v>
       </c>
       <c r="G103" t="inlineStr">
@@ -6238,8 +6268,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>13</v>
       </c>
@@ -6255,9 +6283,11 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>3617.8</v>
-      </c>
-      <c r="P103" t="inlineStr"/>
+        <v>3628.6</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>43.54</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6281,7 +6311,7 @@
       <c r="E104" t="n">
         <v>997.4</v>
       </c>
-      <c r="F104" s="2" t="n">
+      <c r="F104" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="G104" t="inlineStr">
@@ -6294,8 +6324,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>13.60000000000002</v>
       </c>
@@ -6311,9 +6339,11 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>1362.1</v>
-      </c>
-      <c r="P104" t="inlineStr"/>
+        <v>1349.2</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>33.45</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6337,7 +6367,7 @@
       <c r="E105" t="n">
         <v>838.9</v>
       </c>
-      <c r="F105" s="2" t="n">
+      <c r="F105" s="3" t="n">
         <v>45259</v>
       </c>
       <c r="G105" t="inlineStr">
@@ -6350,8 +6380,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>12.10000000000002</v>
       </c>
@@ -6367,9 +6395,11 @@
         </is>
       </c>
       <c r="O105" t="n">
-        <v>1362.1</v>
-      </c>
-      <c r="P105" t="inlineStr"/>
+        <v>1349.2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>58.54</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6393,7 +6423,7 @@
       <c r="E106" t="n">
         <v>586.8</v>
       </c>
-      <c r="F106" s="2" t="n">
+      <c r="F106" s="3" t="n">
         <v>45112</v>
       </c>
       <c r="G106" t="inlineStr">
@@ -6406,8 +6436,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>5.800000000000068</v>
       </c>
@@ -6423,9 +6451,11 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>1362.1</v>
-      </c>
-      <c r="P106" t="inlineStr"/>
+        <v>1349.2</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>127.67</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6449,7 +6479,7 @@
       <c r="E107" t="n">
         <v>8165</v>
       </c>
-      <c r="F107" s="2" t="n">
+      <c r="F107" s="3" t="n">
         <v>45581</v>
       </c>
       <c r="G107" t="inlineStr">
@@ -6462,8 +6492,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>-72</v>
       </c>
@@ -6479,9 +6507,11 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>5398.5</v>
-      </c>
-      <c r="P107" t="inlineStr"/>
+        <v>5408.5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>-33.17</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6505,7 +6535,7 @@
       <c r="E108" t="n">
         <v>2168</v>
       </c>
-      <c r="F108" s="2" t="n">
+      <c r="F108" s="3" t="n">
         <v>45671</v>
       </c>
       <c r="G108" t="inlineStr">
@@ -6518,8 +6548,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>12</v>
       </c>
@@ -6535,9 +6563,11 @@
         </is>
       </c>
       <c r="O108" t="n">
-        <v>3019.2</v>
-      </c>
-      <c r="P108" t="inlineStr"/>
+        <v>3007.7</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>37.97</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6561,7 +6591,7 @@
       <c r="E109" t="n">
         <v>943.7</v>
       </c>
-      <c r="F109" s="2" t="n">
+      <c r="F109" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="G109" t="inlineStr">
@@ -6574,8 +6604,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
         <v>3.899999999999977</v>
       </c>
@@ -6591,9 +6619,11 @@
         </is>
       </c>
       <c r="O109" t="n">
-        <v>1306.2</v>
-      </c>
-      <c r="P109" t="inlineStr"/>
+        <v>1315.7</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>38.85</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6617,7 +6647,7 @@
       <c r="E110" t="n">
         <v>495.55</v>
       </c>
-      <c r="F110" s="2" t="n">
+      <c r="F110" s="3" t="n">
         <v>45043</v>
       </c>
       <c r="G110" t="inlineStr">
@@ -6630,8 +6660,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
         <v>3.449999999999989</v>
       </c>
@@ -6647,9 +6675,11 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>1114.4</v>
-      </c>
-      <c r="P110" t="inlineStr"/>
+        <v>1133.1</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>127.07</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6673,7 +6703,7 @@
       <c r="E111" t="n">
         <v>444.1</v>
       </c>
-      <c r="F111" s="2" t="n">
+      <c r="F111" s="3" t="n">
         <v>45422</v>
       </c>
       <c r="G111" t="inlineStr">
@@ -6686,8 +6716,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
         <v>3.899999999999977</v>
       </c>
@@ -6703,9 +6731,11 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>686.15</v>
-      </c>
-      <c r="P111" t="inlineStr"/>
+        <v>685.75</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>53.07</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6729,7 +6759,7 @@
       <c r="E112" t="n">
         <v>409</v>
       </c>
-      <c r="F112" s="2" t="n">
+      <c r="F112" s="3" t="n">
         <v>45253</v>
       </c>
       <c r="G112" t="inlineStr">
@@ -6742,8 +6772,6 @@
           <t>Not Perfect</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
         <v>4.5</v>
       </c>
@@ -6759,9 +6787,11 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>511.1</v>
-      </c>
-      <c r="P112" t="inlineStr"/>
+        <v>503.55</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>21.78</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6785,7 +6815,7 @@
       <c r="E113" t="n">
         <v>280</v>
       </c>
-      <c r="F113" s="2" t="n">
+      <c r="F113" s="3" t="n">
         <v>45728</v>
       </c>
       <c r="G113" t="inlineStr">
@@ -6798,8 +6828,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
         <v>-2.800000000000011</v>
       </c>
@@ -6815,9 +6843,11 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>241.65</v>
-      </c>
-      <c r="P113" t="inlineStr"/>
+        <v>243.39</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-12.2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6841,7 +6871,7 @@
       <c r="E114" t="n">
         <v>198.1</v>
       </c>
-      <c r="F114" s="2" t="n">
+      <c r="F114" s="3" t="n">
         <v>45259</v>
       </c>
       <c r="G114" t="inlineStr">
@@ -6854,8 +6884,6 @@
           <t>Perfect Zone</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
         <v>0.8000000000000114</v>
       </c>
@@ -6871,11 +6899,21 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>241.65</v>
-      </c>
-      <c r="P114" t="inlineStr"/>
+        <v>243.39</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>22.37</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Q114">
+    <cfRule type="expression" priority="1" dxfId="0" stopIfTrue="1">
+      <formula>=AND(ISNUMBER($O2),ISNUMBER($D2),$O2&gt;=D2*(1+0.025))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1" stopIfTrue="1">
+      <formula>=AND(ISNUMBER($O2),ISNUMBER($D2),$O2&lt;=D2*(1-0.025))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/SKV Sheet_Updated PM.xlsx
+++ b/SKV Sheet_Updated PM.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1788</v>
+        <v>1791.7</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.85</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2273.3</v>
+        <v>2279.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.93</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="4">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1306</v>
+        <v>1308.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.37</v>
+        <v>88.73999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>7813.5</v>
+        <v>7776</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.55</v>
+        <v>58.78</v>
       </c>
     </row>
     <row r="6">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>119.69</v>
+        <v>119.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>67.98999999999999</v>
+        <v>68.14</v>
       </c>
     </row>
     <row r="7">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>8224</v>
+        <v>8237</v>
       </c>
       <c r="Q7" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="8">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>8224</v>
+        <v>8237</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.03</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="9">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>8224</v>
+        <v>8237</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>-0.68</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="10">
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1917.8</v>
+        <v>1918.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.65</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="11">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>242.12</v>
+        <v>242.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>-18.02</v>
+        <v>-17.97</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>242.12</v>
+        <v>242.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="13">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>384.25</v>
+        <v>383.85</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.32</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>384.25</v>
+        <v>383.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.85</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="15">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>384.25</v>
+        <v>383.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.65000000000001</v>
+        <v>80.47</v>
       </c>
     </row>
     <row r="16">
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>384.25</v>
+        <v>383.85</v>
       </c>
       <c r="Q16" t="n">
-        <v>-9.949999999999999</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="17">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>384.25</v>
+        <v>383.85</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="18">
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1179</v>
+        <v>1173.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>-14.33</v>
+        <v>-14.75</v>
       </c>
     </row>
     <row r="19">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>1869.3</v>
+        <v>1871.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.43</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="20">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>1869.3</v>
+        <v>1871.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.48</v>
+        <v>121.71</v>
       </c>
     </row>
     <row r="21">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>223.38</v>
+        <v>222.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>-23.98</v>
+        <v>-24.18</v>
       </c>
     </row>
     <row r="22">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>223.38</v>
+        <v>222.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.95</v>
+        <v>120.38</v>
       </c>
     </row>
     <row r="23">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>223.38</v>
+        <v>222.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>156.17</v>
+        <v>155.5</v>
       </c>
     </row>
     <row r="24">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>323.3</v>
+        <v>320.55</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.73999999999999</v>
+        <v>83.17</v>
       </c>
     </row>
     <row r="25">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2491.2</v>
+        <v>2476.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.84</v>
+        <v>78.78</v>
       </c>
     </row>
     <row r="26">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2491.2</v>
+        <v>2476.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.22</v>
+        <v>458.93</v>
       </c>
     </row>
     <row r="27">
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2491.2</v>
+        <v>2476.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="28">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2491.2</v>
+        <v>2476.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1683.25</v>
+        <v>1672.8</v>
       </c>
     </row>
     <row r="29">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>108.76</v>
+        <v>108.97</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.48</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="30">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>108.76</v>
+        <v>108.97</v>
       </c>
       <c r="Q30" t="n">
-        <v>-14.5</v>
+        <v>-14.33</v>
       </c>
     </row>
     <row r="31">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>108.76</v>
+        <v>108.97</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.53</v>
+        <v>50.82</v>
       </c>
     </row>
     <row r="32">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>108.76</v>
+        <v>108.97</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="33">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1631.5</v>
+        <v>1626.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.11</v>
+        <v>44.63</v>
       </c>
     </row>
     <row r="34">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1631.5</v>
+        <v>1626.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.29000000000001</v>
+        <v>88.66</v>
       </c>
     </row>
     <row r="35">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2177.8</v>
+        <v>2176.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>-27.29</v>
+        <v>-27.33</v>
       </c>
     </row>
     <row r="36">
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2297.3</v>
+        <v>2312.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>134.06</v>
+        <v>135.61</v>
       </c>
     </row>
     <row r="37">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>3786.3</v>
+        <v>3786.9</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>-1.7</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="38">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>3786.3</v>
+        <v>3786.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.15000000000001</v>
+        <v>86.18000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>6168</v>
+        <v>6159.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>-11.53</v>
+        <v>-11.65</v>
       </c>
     </row>
     <row r="40">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1262.6</v>
+        <v>1260.6</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.94</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="41">
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1262.6</v>
+        <v>1260.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>38.56</v>
+        <v>38.35</v>
       </c>
     </row>
     <row r="42">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>5718</v>
+        <v>5738.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.25</v>
+        <v>100.96</v>
       </c>
     </row>
     <row r="43">
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>196.16</v>
+        <v>195.9</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.619999999999999</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>196.16</v>
+        <v>195.9</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.13</v>
+        <v>59.92</v>
       </c>
     </row>
     <row r="45">
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>172.88</v>
+        <v>173.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="46">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>172.88</v>
+        <v>173.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.61</v>
+        <v>50.15</v>
       </c>
     </row>
     <row r="47">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>172.88</v>
+        <v>173.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>-10.1</v>
+        <v>-9.779999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1196.6</v>
+        <v>1195.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>13.15</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="49">
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>1961.5</v>
+        <v>1957.7</v>
       </c>
       <c r="Q49" t="n">
-        <v>17.5</v>
+        <v>17.27</v>
       </c>
     </row>
     <row r="50">
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>4498</v>
+        <v>4491.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>-15.24</v>
+        <v>-15.36</v>
       </c>
     </row>
     <row r="51">
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>1474</v>
+        <v>1475.3</v>
       </c>
       <c r="Q51" t="n">
-        <v>33.64</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="52">
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>5490.5</v>
+        <v>5462.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>69.09</v>
+        <v>68.23</v>
       </c>
     </row>
     <row r="53">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>5490.5</v>
+        <v>5462.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>210.9</v>
+        <v>209.31</v>
       </c>
     </row>
     <row r="54">
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>5490.5</v>
+        <v>5462.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>9.66</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="55">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>787.85</v>
+        <v>788.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>69.06999999999999</v>
+        <v>69.16</v>
       </c>
     </row>
     <row r="56">
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>4741.6</v>
+        <v>4759.4</v>
       </c>
       <c r="Q56" t="n">
-        <v>49.19</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="57">
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>398.3</v>
+        <v>398</v>
       </c>
       <c r="Q57" t="n">
-        <v>26.04</v>
+        <v>25.95</v>
       </c>
     </row>
     <row r="58">
@@ -3753,10 +3753,10 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>2494</v>
+        <v>2500</v>
       </c>
       <c r="Q58" t="n">
-        <v>6.46</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="59">
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>1423.8</v>
+        <v>1428.8</v>
       </c>
       <c r="Q59" t="n">
-        <v>16.99</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="60">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>764.85</v>
+        <v>764.6</v>
       </c>
       <c r="Q60" t="n">
-        <v>32.1</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="61">
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>764.85</v>
+        <v>764.6</v>
       </c>
       <c r="Q61" t="n">
-        <v>116.06</v>
+        <v>115.99</v>
       </c>
     </row>
     <row r="62">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>764.85</v>
+        <v>764.6</v>
       </c>
       <c r="Q62" t="n">
-        <v>22.85</v>
+        <v>22.81</v>
       </c>
     </row>
     <row r="63">
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>764.85</v>
+        <v>764.6</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="64">
@@ -4094,10 +4094,10 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>776</v>
+        <v>777.15</v>
       </c>
       <c r="Q64" t="n">
-        <v>11.74</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="65">
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>1445.1</v>
+        <v>1450.9</v>
       </c>
       <c r="Q65" t="n">
-        <v>-2.29</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="66">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>975.95</v>
+        <v>984</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.97</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="67">
@@ -4262,10 +4262,10 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>328.5</v>
+        <v>327.1</v>
       </c>
       <c r="Q67" t="n">
-        <v>6.83</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="68">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>528.9</v>
+        <v>530.6</v>
       </c>
       <c r="Q68" t="n">
-        <v>9.960000000000001</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="69">
@@ -4374,10 +4374,10 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>1048.3</v>
+        <v>1049.7</v>
       </c>
       <c r="Q69" t="n">
-        <v>18.18</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="70">
@@ -4430,10 +4430,10 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>513.35</v>
+        <v>520.75</v>
       </c>
       <c r="Q70" t="n">
-        <v>181.91</v>
+        <v>185.97</v>
       </c>
     </row>
     <row r="71">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>1231.8</v>
+        <v>1231.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>-6.82</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="72">
@@ -4542,10 +4542,10 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="Q72" t="n">
-        <v>34.88</v>
+        <v>34.85</v>
       </c>
     </row>
     <row r="73">
@@ -4598,10 +4598,10 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>12928</v>
+        <v>12937</v>
       </c>
       <c r="Q73" t="n">
-        <v>23.71</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="74">
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1231.7</v>
+        <v>1221.3</v>
       </c>
       <c r="Q74" t="n">
-        <v>20.52</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="75">
@@ -4710,10 +4710,10 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>2709.7</v>
+        <v>2711</v>
       </c>
       <c r="Q75" t="n">
-        <v>-9.619999999999999</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="76">
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>2709.7</v>
+        <v>2711</v>
       </c>
       <c r="Q76" t="n">
-        <v>40.25</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="77">
@@ -4822,10 +4822,10 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>337</v>
+        <v>336.75</v>
       </c>
       <c r="Q77" t="n">
-        <v>28.77</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="78">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1616.3</v>
+        <v>1620.1</v>
       </c>
       <c r="Q78" t="n">
-        <v>-23.83</v>
+        <v>-23.66</v>
       </c>
     </row>
     <row r="79">
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>399.45</v>
+        <v>399.15</v>
       </c>
       <c r="Q79" t="n">
-        <v>116.5</v>
+        <v>116.34</v>
       </c>
     </row>
     <row r="80">
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>234.6</v>
+        <v>235.68</v>
       </c>
       <c r="Q80" t="n">
-        <v>-16.93</v>
+        <v>-16.54</v>
       </c>
     </row>
     <row r="81">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>5265.5</v>
+        <v>5266</v>
       </c>
       <c r="Q81" t="n">
-        <v>-6.23</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="82">
@@ -5102,10 +5102,10 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>415.65</v>
+        <v>415.7</v>
       </c>
       <c r="Q82" t="n">
-        <v>-25.35</v>
+        <v>-25.34</v>
       </c>
     </row>
     <row r="83">
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>415.65</v>
+        <v>415.7</v>
       </c>
       <c r="Q83" t="n">
-        <v>127.88</v>
+        <v>127.91</v>
       </c>
     </row>
     <row r="84">
@@ -5214,10 +5214,10 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>287.2</v>
+        <v>288.15</v>
       </c>
       <c r="Q84" t="n">
-        <v>-2.64</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="85">
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>382.55</v>
+        <v>382.95</v>
       </c>
       <c r="Q85" t="n">
-        <v>-8.59</v>
+        <v>-8.49</v>
       </c>
     </row>
     <row r="86">
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>382.55</v>
+        <v>382.95</v>
       </c>
       <c r="Q86" t="n">
-        <v>-36.85</v>
+        <v>-36.79</v>
       </c>
     </row>
     <row r="87">
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>382.55</v>
+        <v>382.95</v>
       </c>
       <c r="Q87" t="n">
-        <v>8.960000000000001</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="88">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>1377.7</v>
+        <v>1378</v>
       </c>
       <c r="Q88" t="n">
-        <v>-10.89</v>
+        <v>-10.87</v>
       </c>
     </row>
     <row r="89">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>121.73</v>
+        <v>121.92</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="90">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>121.73</v>
+        <v>121.92</v>
       </c>
       <c r="Q90" t="n">
-        <v>-10.43</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="91">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>792.8</v>
+        <v>791.3</v>
       </c>
       <c r="Q91" t="n">
-        <v>16.85</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="92">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>792.8</v>
+        <v>791.3</v>
       </c>
       <c r="Q92" t="n">
-        <v>-12.7</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="93">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>1845.3</v>
+        <v>1844.3</v>
       </c>
       <c r="Q93" t="n">
-        <v>5.09</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="94">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>1054.9</v>
+        <v>1055.9</v>
       </c>
       <c r="Q94" t="n">
-        <v>-11.58</v>
+        <v>-11.49</v>
       </c>
     </row>
     <row r="95">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="O95" t="n">
-        <v>1054.9</v>
+        <v>1055.9</v>
       </c>
       <c r="Q95" t="n">
-        <v>34.73</v>
+        <v>34.85</v>
       </c>
     </row>
     <row r="96">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>661.5</v>
+        <v>660.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>-6.98</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="97">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>661.5</v>
+        <v>660.75</v>
       </c>
       <c r="Q97" t="n">
-        <v>-24.57</v>
+        <v>-24.66</v>
       </c>
     </row>
     <row r="98">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>661.5</v>
+        <v>660.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>38.33</v>
+        <v>38.17</v>
       </c>
     </row>
     <row r="99">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>384</v>
+        <v>384.45</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="100">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>157.13</v>
+        <v>157.05</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="101">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>157.13</v>
+        <v>157.05</v>
       </c>
       <c r="Q101" t="n">
-        <v>27.44</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="102">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="O102" t="n">
-        <v>1504.3</v>
+        <v>1507</v>
       </c>
       <c r="Q102" t="n">
-        <v>-6.27</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="103">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>3628.6</v>
+        <v>3604.1</v>
       </c>
       <c r="Q103" t="n">
-        <v>43.54</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="104">
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>1349.2</v>
+        <v>1348.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>33.45</v>
+        <v>33.38</v>
       </c>
     </row>
     <row r="105">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="O105" t="n">
-        <v>1349.2</v>
+        <v>1348.5</v>
       </c>
       <c r="Q105" t="n">
-        <v>58.54</v>
+        <v>58.46</v>
       </c>
     </row>
     <row r="106">
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>1349.2</v>
+        <v>1348.5</v>
       </c>
       <c r="Q106" t="n">
-        <v>127.67</v>
+        <v>127.56</v>
       </c>
     </row>
     <row r="107">
@@ -6507,10 +6507,10 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>5408.5</v>
+        <v>5424</v>
       </c>
       <c r="Q107" t="n">
-        <v>-33.17</v>
+        <v>-32.98</v>
       </c>
     </row>
     <row r="108">
@@ -6563,10 +6563,10 @@
         </is>
       </c>
       <c r="O108" t="n">
-        <v>3007.7</v>
+        <v>3013</v>
       </c>
       <c r="Q108" t="n">
-        <v>37.97</v>
+        <v>38.21</v>
       </c>
     </row>
     <row r="109">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="O109" t="n">
-        <v>1315.7</v>
+        <v>1309</v>
       </c>
       <c r="Q109" t="n">
-        <v>38.85</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="110">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>1133.1</v>
+        <v>1133.9</v>
       </c>
       <c r="Q110" t="n">
-        <v>127.07</v>
+        <v>127.23</v>
       </c>
     </row>
     <row r="111">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>685.75</v>
+        <v>684.9</v>
       </c>
       <c r="Q111" t="n">
-        <v>53.07</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="112">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>503.55</v>
+        <v>501.6</v>
       </c>
       <c r="Q112" t="n">
-        <v>21.78</v>
+        <v>21.31</v>
       </c>
     </row>
     <row r="113">
@@ -6843,10 +6843,10 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>243.39</v>
+        <v>244.78</v>
       </c>
       <c r="Q113" t="n">
-        <v>-12.2</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="114">
@@ -6899,10 +6899,10 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>243.39</v>
+        <v>244.78</v>
       </c>
       <c r="Q114" t="n">
-        <v>22.37</v>
+        <v>23.07</v>
       </c>
     </row>
   </sheetData>

--- a/SKV Sheet_Updated PM.xlsx
+++ b/SKV Sheet_Updated PM.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1791.7</v>
+        <v>1787.1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2279.6</v>
+        <v>2280.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.25</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="4">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1308.5</v>
+        <v>1302.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.73999999999999</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="5">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>7776</v>
+        <v>7757.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>58.78</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="6">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>119.8</v>
+        <v>119.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.14</v>
+        <v>67.86</v>
       </c>
     </row>
     <row r="7">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>8237</v>
+        <v>8224</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>8237</v>
+        <v>8224</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.3</v>
+        <v>69.03</v>
       </c>
     </row>
     <row r="9">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>8237</v>
+        <v>8224</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>-0.52</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="10">
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1918.6</v>
+        <v>1927.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.71</v>
+        <v>41.37</v>
       </c>
     </row>
     <row r="11">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>242.28</v>
+        <v>242.21</v>
       </c>
       <c r="Q11" t="n">
-        <v>-17.97</v>
+        <v>-17.99</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>242.28</v>
+        <v>242.21</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="13">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>383.85</v>
+        <v>383.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>383.85</v>
+        <v>383.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.73</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="15">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>383.85</v>
+        <v>383.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.47</v>
+        <v>80.20999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>383.85</v>
+        <v>383.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>-10.04</v>
+        <v>-10.17</v>
       </c>
     </row>
     <row r="17">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>383.85</v>
+        <v>383.3</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="18">
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1173.2</v>
+        <v>1170.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>-14.75</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="19">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>1871.2</v>
+        <v>1873</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.56</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="20">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>1871.2</v>
+        <v>1873</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.71</v>
+        <v>121.92</v>
       </c>
     </row>
     <row r="21">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>222.8</v>
+        <v>222.23</v>
       </c>
       <c r="Q21" t="n">
-        <v>-24.18</v>
+        <v>-24.37</v>
       </c>
     </row>
     <row r="22">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>222.8</v>
+        <v>222.23</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.38</v>
+        <v>119.81</v>
       </c>
     </row>
     <row r="23">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>222.8</v>
+        <v>222.23</v>
       </c>
       <c r="Q23" t="n">
-        <v>155.5</v>
+        <v>154.85</v>
       </c>
     </row>
     <row r="24">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>320.55</v>
+        <v>320.15</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.17</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="25">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2476.6</v>
+        <v>2472.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.78</v>
+        <v>78.48999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2476.6</v>
+        <v>2472.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>458.93</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27">
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2476.6</v>
+        <v>2472.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.54</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="28">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2476.6</v>
+        <v>2472.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1672.8</v>
+        <v>1669.86</v>
       </c>
     </row>
     <row r="29">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>108.97</v>
+        <v>108.82</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.68</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="30">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>108.97</v>
+        <v>108.82</v>
       </c>
       <c r="Q30" t="n">
-        <v>-14.33</v>
+        <v>-14.45</v>
       </c>
     </row>
     <row r="31">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>108.97</v>
+        <v>108.82</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.82</v>
+        <v>50.62</v>
       </c>
     </row>
     <row r="32">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>108.97</v>
+        <v>108.82</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="33">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1626.1</v>
+        <v>1623.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.63</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="34">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1626.1</v>
+        <v>1623.9</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.66</v>
+        <v>88.41</v>
       </c>
     </row>
     <row r="35">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2176.4</v>
+        <v>2172.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>-27.33</v>
+        <v>-27.47</v>
       </c>
     </row>
     <row r="36">
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2312.5</v>
+        <v>2313.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.61</v>
+        <v>135.74</v>
       </c>
     </row>
     <row r="37">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>3786.9</v>
+        <v>3788</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>-1.69</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="38">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>3786.9</v>
+        <v>3788</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.18000000000001</v>
+        <v>86.23</v>
       </c>
     </row>
     <row r="39">
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>6159.5</v>
+        <v>6131.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>-11.65</v>
+        <v>-12.06</v>
       </c>
     </row>
     <row r="40">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1260.6</v>
+        <v>1253</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1260.6</v>
+        <v>1253</v>
       </c>
       <c r="Q41" t="n">
-        <v>38.35</v>
+        <v>37.51</v>
       </c>
     </row>
     <row r="42">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>5738.5</v>
+        <v>5729</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.96</v>
+        <v>100.63</v>
       </c>
     </row>
     <row r="43">
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>195.9</v>
+        <v>196.02</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.470000000000001</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>195.9</v>
+        <v>196.02</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.92</v>
+        <v>60.02</v>
       </c>
     </row>
     <row r="45">
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>173.5</v>
+        <v>173.26</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.96</v>
+        <v>22.79</v>
       </c>
     </row>
     <row r="46">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>173.5</v>
+        <v>173.26</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.15</v>
+        <v>49.94</v>
       </c>
     </row>
     <row r="47">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>173.5</v>
+        <v>173.26</v>
       </c>
       <c r="Q47" t="n">
-        <v>-9.779999999999999</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="48">
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1195.5</v>
+        <v>1191.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>13.05</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="49">
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>1957.7</v>
+        <v>1957.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>17.27</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="50">
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>4491.8</v>
+        <v>4496</v>
       </c>
       <c r="Q50" t="n">
-        <v>-15.36</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="51">
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>1475.3</v>
+        <v>1475.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>33.75</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="52">
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>5462.5</v>
+        <v>5444</v>
       </c>
       <c r="Q52" t="n">
-        <v>68.23</v>
+        <v>67.66</v>
       </c>
     </row>
     <row r="53">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>5462.5</v>
+        <v>5444</v>
       </c>
       <c r="Q53" t="n">
-        <v>209.31</v>
+        <v>208.27</v>
       </c>
     </row>
     <row r="54">
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>5462.5</v>
+        <v>5444</v>
       </c>
       <c r="Q54" t="n">
-        <v>9.1</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="55">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>788.3</v>
+        <v>786.1</v>
       </c>
       <c r="Q55" t="n">
-        <v>69.16</v>
+        <v>68.69</v>
       </c>
     </row>
     <row r="56">
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>4759.4</v>
+        <v>4747.7</v>
       </c>
       <c r="Q56" t="n">
-        <v>49.75</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="57">
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>398</v>
+        <v>398.2</v>
       </c>
       <c r="Q57" t="n">
-        <v>25.95</v>
+        <v>26.01</v>
       </c>
     </row>
     <row r="58">
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>2500</v>
+        <v>2500.1</v>
       </c>
       <c r="Q58" t="n">
         <v>6.72</v>
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>1428.8</v>
+        <v>1427.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>17.4</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="60">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>764.6</v>
+        <v>767.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>32.06</v>
+        <v>32.54</v>
       </c>
     </row>
     <row r="61">
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>764.6</v>
+        <v>767.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>115.99</v>
+        <v>116.78</v>
       </c>
     </row>
     <row r="62">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>764.6</v>
+        <v>767.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>22.81</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="63">
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>764.6</v>
+        <v>767.4</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>5.06</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="64">
@@ -4094,10 +4094,10 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>777.15</v>
+        <v>776.1</v>
       </c>
       <c r="Q64" t="n">
-        <v>11.9</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="65">
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>1450.9</v>
+        <v>1447.3</v>
       </c>
       <c r="Q65" t="n">
-        <v>-1.9</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="66">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>984</v>
+        <v>979.3</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.82</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="67">
@@ -4262,10 +4262,10 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>327.1</v>
+        <v>327.2</v>
       </c>
       <c r="Q67" t="n">
-        <v>6.37</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="68">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>530.6</v>
+        <v>531.8</v>
       </c>
       <c r="Q68" t="n">
-        <v>10.31</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="69">
@@ -4374,10 +4374,10 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>1049.7</v>
+        <v>1046.6</v>
       </c>
       <c r="Q69" t="n">
-        <v>18.34</v>
+        <v>17.99</v>
       </c>
     </row>
     <row r="70">
@@ -4430,10 +4430,10 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>520.75</v>
+        <v>522.7</v>
       </c>
       <c r="Q70" t="n">
-        <v>185.97</v>
+        <v>187.04</v>
       </c>
     </row>
     <row r="71">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>1231.4</v>
+        <v>1234.7</v>
       </c>
       <c r="Q71" t="n">
-        <v>-6.85</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="72">
@@ -4542,10 +4542,10 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>3684</v>
+        <v>3670.3</v>
       </c>
       <c r="Q72" t="n">
-        <v>34.85</v>
+        <v>34.34</v>
       </c>
     </row>
     <row r="73">
@@ -4598,10 +4598,10 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>12937</v>
+        <v>12869</v>
       </c>
       <c r="Q73" t="n">
-        <v>23.8</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="74">
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1221.3</v>
+        <v>1227</v>
       </c>
       <c r="Q74" t="n">
-        <v>19.5</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="75">
@@ -4710,10 +4710,10 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>2711</v>
+        <v>2706.4</v>
       </c>
       <c r="Q75" t="n">
-        <v>-9.58</v>
+        <v>-9.73</v>
       </c>
     </row>
     <row r="76">
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>2711</v>
+        <v>2706.4</v>
       </c>
       <c r="Q76" t="n">
-        <v>40.32</v>
+        <v>40.08</v>
       </c>
     </row>
     <row r="77">
@@ -4822,10 +4822,10 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>336.75</v>
+        <v>336.9</v>
       </c>
       <c r="Q77" t="n">
-        <v>28.68</v>
+        <v>28.74</v>
       </c>
     </row>
     <row r="78">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1620.1</v>
+        <v>1629.1</v>
       </c>
       <c r="Q78" t="n">
-        <v>-23.66</v>
+        <v>-23.23</v>
       </c>
     </row>
     <row r="79">
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>399.15</v>
+        <v>399.65</v>
       </c>
       <c r="Q79" t="n">
-        <v>116.34</v>
+        <v>116.61</v>
       </c>
     </row>
     <row r="80">
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>235.68</v>
+        <v>236.01</v>
       </c>
       <c r="Q80" t="n">
-        <v>-16.54</v>
+        <v>-16.43</v>
       </c>
     </row>
     <row r="81">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="Q81" t="n">
-        <v>-6.22</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="82">
@@ -5102,10 +5102,10 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>415.7</v>
+        <v>415.95</v>
       </c>
       <c r="Q82" t="n">
-        <v>-25.34</v>
+        <v>-25.3</v>
       </c>
     </row>
     <row r="83">
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>415.7</v>
+        <v>415.95</v>
       </c>
       <c r="Q83" t="n">
-        <v>127.91</v>
+        <v>128.04</v>
       </c>
     </row>
     <row r="84">
@@ -5214,10 +5214,10 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>288.15</v>
+        <v>288.3</v>
       </c>
       <c r="Q84" t="n">
-        <v>-2.32</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="85">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>1378</v>
+        <v>1377.8</v>
       </c>
       <c r="Q88" t="n">
-        <v>-10.87</v>
+        <v>-10.88</v>
       </c>
     </row>
     <row r="89">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>121.92</v>
+        <v>121.56</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>1.26</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="90">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>121.92</v>
+        <v>121.56</v>
       </c>
       <c r="Q90" t="n">
-        <v>-10.29</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="91">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>791.3</v>
+        <v>790.7</v>
       </c>
       <c r="Q91" t="n">
-        <v>16.62</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="92">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>791.3</v>
+        <v>790.7</v>
       </c>
       <c r="Q92" t="n">
-        <v>-12.86</v>
+        <v>-12.93</v>
       </c>
     </row>
     <row r="93">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>1844.3</v>
+        <v>1842.4</v>
       </c>
       <c r="Q93" t="n">
-        <v>5.03</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="94">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>1055.9</v>
+        <v>1055.1</v>
       </c>
       <c r="Q94" t="n">
-        <v>-11.49</v>
+        <v>-11.56</v>
       </c>
     </row>
     <row r="95">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="O95" t="n">
-        <v>1055.9</v>
+        <v>1055.1</v>
       </c>
       <c r="Q95" t="n">
-        <v>34.85</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="96">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>660.75</v>
+        <v>658.25</v>
       </c>
       <c r="Q96" t="n">
-        <v>-7.08</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="97">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>660.75</v>
+        <v>658.25</v>
       </c>
       <c r="Q97" t="n">
-        <v>-24.66</v>
+        <v>-24.94</v>
       </c>
     </row>
     <row r="98">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>660.75</v>
+        <v>658.25</v>
       </c>
       <c r="Q98" t="n">
-        <v>38.17</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="99">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>384.45</v>
+        <v>384.65</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.21</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="100">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>157.05</v>
+        <v>157.06</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="101">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>157.05</v>
+        <v>157.06</v>
       </c>
       <c r="Q101" t="n">
-        <v>27.37</v>
+        <v>27.38</v>
       </c>
     </row>
     <row r="102">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="O102" t="n">
-        <v>1507</v>
+        <v>1505.7</v>
       </c>
       <c r="Q102" t="n">
-        <v>-6.11</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="103">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>3604.1</v>
+        <v>3597.2</v>
       </c>
       <c r="Q103" t="n">
-        <v>42.57</v>
+        <v>42.29</v>
       </c>
     </row>
     <row r="104">
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>1348.5</v>
+        <v>1347.7</v>
       </c>
       <c r="Q104" t="n">
-        <v>33.38</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="105">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="O105" t="n">
-        <v>1348.5</v>
+        <v>1347.7</v>
       </c>
       <c r="Q105" t="n">
-        <v>58.46</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="106">
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>1348.5</v>
+        <v>1347.7</v>
       </c>
       <c r="Q106" t="n">
-        <v>127.56</v>
+        <v>127.42</v>
       </c>
     </row>
     <row r="107">
@@ -6507,10 +6507,10 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>5424</v>
+        <v>5430</v>
       </c>
       <c r="Q107" t="n">
-        <v>-32.98</v>
+        <v>-32.9</v>
       </c>
     </row>
     <row r="108">
@@ -6563,10 +6563,10 @@
         </is>
       </c>
       <c r="O108" t="n">
-        <v>3013</v>
+        <v>2995</v>
       </c>
       <c r="Q108" t="n">
-        <v>38.21</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="109">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="O109" t="n">
-        <v>1309</v>
+        <v>1308.6</v>
       </c>
       <c r="Q109" t="n">
-        <v>38.14</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="110">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>1133.9</v>
+        <v>1132</v>
       </c>
       <c r="Q110" t="n">
-        <v>127.23</v>
+        <v>126.85</v>
       </c>
     </row>
     <row r="111">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>684.9</v>
+        <v>684.8</v>
       </c>
       <c r="Q111" t="n">
-        <v>52.88</v>
+        <v>52.86</v>
       </c>
     </row>
     <row r="112">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>501.6</v>
+        <v>501.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>21.31</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="113">
@@ -6843,10 +6843,10 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>244.78</v>
+        <v>244.99</v>
       </c>
       <c r="Q113" t="n">
-        <v>-11.7</v>
+        <v>-11.62</v>
       </c>
     </row>
     <row r="114">
@@ -6899,10 +6899,10 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>244.78</v>
+        <v>244.99</v>
       </c>
       <c r="Q114" t="n">
-        <v>23.07</v>
+        <v>23.17</v>
       </c>
     </row>
   </sheetData>

--- a/SKV Sheet_Updated PM.xlsx
+++ b/SKV Sheet_Updated PM.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1787.1</v>
+        <v>1795</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.8</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2280.3</v>
+        <v>2291</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.29</v>
+        <v>16.83</v>
       </c>
     </row>
     <row r="4">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1302.4</v>
+        <v>1303.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>87.86</v>
+        <v>88.06</v>
       </c>
     </row>
     <row r="5">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>7757.5</v>
+        <v>7800.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>58.4</v>
+        <v>59.28</v>
       </c>
     </row>
     <row r="6">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>119.6</v>
+        <v>119.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>67.86</v>
+        <v>68.20999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>8224</v>
+        <v>8217.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="8">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>8224</v>
+        <v>8217.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.03</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>8224</v>
+        <v>8217.5</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>-0.68</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="10">
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1927.6</v>
+        <v>1936.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.37</v>
+        <v>42.04</v>
       </c>
     </row>
     <row r="11">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>242.21</v>
+        <v>243.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>-17.99</v>
+        <v>-17.6</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>242.21</v>
+        <v>243.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.02</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="13">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>383.3</v>
+        <v>383.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.050000000000001</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>383.3</v>
+        <v>383.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.56</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="15">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>383.3</v>
+        <v>383.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.20999999999999</v>
+        <v>80.34999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>383.3</v>
+        <v>383.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>-10.17</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="17">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>383.3</v>
+        <v>383.6</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="18">
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1170.9</v>
+        <v>1177.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>-14.92</v>
+        <v>-14.41</v>
       </c>
     </row>
     <row r="19">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>1873</v>
+        <v>1873.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.68</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="20">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>1873</v>
+        <v>1873.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.92</v>
+        <v>121.98</v>
       </c>
     </row>
     <row r="21">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>222.23</v>
+        <v>222.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>-24.37</v>
+        <v>-24.17</v>
       </c>
     </row>
     <row r="22">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>222.23</v>
+        <v>222.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>119.81</v>
+        <v>120.42</v>
       </c>
     </row>
     <row r="23">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>222.23</v>
+        <v>222.84</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.85</v>
+        <v>155.55</v>
       </c>
     </row>
     <row r="24">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>320.15</v>
+        <v>321.05</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.94</v>
+        <v>83.45999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2472.5</v>
+        <v>2481.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.48999999999999</v>
+        <v>79.16</v>
       </c>
     </row>
     <row r="26">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2472.5</v>
+        <v>2481.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>458</v>
+        <v>460.1</v>
       </c>
     </row>
     <row r="27">
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2472.5</v>
+        <v>2481.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.7</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="28">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2472.5</v>
+        <v>2481.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>1669.86</v>
+        <v>1676.52</v>
       </c>
     </row>
     <row r="29">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>108.82</v>
+        <v>109.78</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.54</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="30">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>108.82</v>
+        <v>109.78</v>
       </c>
       <c r="Q30" t="n">
-        <v>-14.45</v>
+        <v>-13.69</v>
       </c>
     </row>
     <row r="31">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>108.82</v>
+        <v>109.78</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.62</v>
+        <v>51.94</v>
       </c>
     </row>
     <row r="32">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>108.82</v>
+        <v>109.78</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.66</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="33">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1623.9</v>
+        <v>1625.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.44</v>
+        <v>44.56</v>
       </c>
     </row>
     <row r="34">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1623.9</v>
+        <v>1625.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.41</v>
+        <v>88.56999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2172.4</v>
+        <v>2172.9</v>
       </c>
       <c r="Q35" t="n">
-        <v>-27.47</v>
+        <v>-27.45</v>
       </c>
     </row>
     <row r="36">
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2313.8</v>
+        <v>2319</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.74</v>
+        <v>136.27</v>
       </c>
     </row>
     <row r="37">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>3788</v>
+        <v>3789.9</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>-1.66</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="38">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>3788</v>
+        <v>3789.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.23</v>
+        <v>86.33</v>
       </c>
     </row>
     <row r="39">
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>6131.5</v>
+        <v>6125</v>
       </c>
       <c r="Q39" t="n">
-        <v>-12.06</v>
+        <v>-12.15</v>
       </c>
     </row>
     <row r="40">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1253</v>
+        <v>1252.6</v>
       </c>
       <c r="Q40" t="n">
-        <v>23</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="41">
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1253</v>
+        <v>1252.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.51</v>
+        <v>37.47</v>
       </c>
     </row>
     <row r="42">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>5729</v>
+        <v>5735.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.63</v>
+        <v>100.86</v>
       </c>
     </row>
     <row r="43">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>196.02</v>
+        <v>196.03</v>
       </c>
       <c r="Q43" t="n">
         <v>8.539999999999999</v>
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>196.02</v>
+        <v>196.03</v>
       </c>
       <c r="Q44" t="n">
         <v>60.02</v>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>173.26</v>
+        <v>173.48</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.79</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="46">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>173.26</v>
+        <v>173.48</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.94</v>
+        <v>50.13</v>
       </c>
     </row>
     <row r="47">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>173.26</v>
+        <v>173.48</v>
       </c>
       <c r="Q47" t="n">
-        <v>-9.9</v>
+        <v>-9.789999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1191.6</v>
+        <v>1194.9</v>
       </c>
       <c r="Q48" t="n">
-        <v>12.68</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="49">
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>1957.4</v>
+        <v>1963.3</v>
       </c>
       <c r="Q49" t="n">
-        <v>17.25</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="50">
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>4496</v>
+        <v>4495.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>-15.28</v>
+        <v>-15.29</v>
       </c>
     </row>
     <row r="51">
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>1475.2</v>
+        <v>1478.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>33.74</v>
+        <v>34.03</v>
       </c>
     </row>
     <row r="52">
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>5444</v>
+        <v>5459</v>
       </c>
       <c r="Q52" t="n">
-        <v>67.66</v>
+        <v>68.12</v>
       </c>
     </row>
     <row r="53">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>5444</v>
+        <v>5459</v>
       </c>
       <c r="Q53" t="n">
-        <v>208.27</v>
+        <v>209.12</v>
       </c>
     </row>
     <row r="54">
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>5444</v>
+        <v>5459</v>
       </c>
       <c r="Q54" t="n">
-        <v>8.73</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>786.1</v>
+        <v>786.35</v>
       </c>
       <c r="Q55" t="n">
-        <v>68.69</v>
+        <v>68.73999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>4747.7</v>
+        <v>4753.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>49.38</v>
+        <v>49.57</v>
       </c>
     </row>
     <row r="57">
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>398.2</v>
+        <v>398.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>26.01</v>
+        <v>26.11</v>
       </c>
     </row>
     <row r="58">
@@ -3753,10 +3753,10 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>2500.1</v>
+        <v>2497.7</v>
       </c>
       <c r="Q58" t="n">
-        <v>6.72</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="59">
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>1427.4</v>
+        <v>1428.2</v>
       </c>
       <c r="Q59" t="n">
-        <v>17.29</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="60">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>767.4</v>
+        <v>770.95</v>
       </c>
       <c r="Q60" t="n">
-        <v>32.54</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="61">
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>767.4</v>
+        <v>770.95</v>
       </c>
       <c r="Q61" t="n">
-        <v>116.78</v>
+        <v>117.78</v>
       </c>
     </row>
     <row r="62">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>767.4</v>
+        <v>770.95</v>
       </c>
       <c r="Q62" t="n">
-        <v>23.26</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="63">
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>767.4</v>
+        <v>770.95</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>5.44</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="64">
@@ -4094,10 +4094,10 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>776.1</v>
+        <v>777.45</v>
       </c>
       <c r="Q64" t="n">
-        <v>11.75</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="65">
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>1447.3</v>
+        <v>1448.9</v>
       </c>
       <c r="Q65" t="n">
-        <v>-2.14</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="66">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>979.3</v>
+        <v>979.6</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="67">
@@ -4262,10 +4262,10 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>327.2</v>
+        <v>327.45</v>
       </c>
       <c r="Q67" t="n">
-        <v>6.41</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="68">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>531.8</v>
+        <v>533</v>
       </c>
       <c r="Q68" t="n">
-        <v>10.56</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="69">
@@ -4374,10 +4374,10 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>1046.6</v>
+        <v>1048</v>
       </c>
       <c r="Q69" t="n">
-        <v>17.99</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="70">
@@ -4430,10 +4430,10 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>522.7</v>
+        <v>523.1</v>
       </c>
       <c r="Q70" t="n">
-        <v>187.04</v>
+        <v>187.26</v>
       </c>
     </row>
     <row r="71">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>1234.7</v>
+        <v>1236.1</v>
       </c>
       <c r="Q71" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="72">
@@ -4542,10 +4542,10 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>3670.3</v>
+        <v>3674.9</v>
       </c>
       <c r="Q72" t="n">
-        <v>34.34</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="73">
@@ -4598,10 +4598,10 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>12869</v>
+        <v>12863</v>
       </c>
       <c r="Q73" t="n">
-        <v>23.15</v>
+        <v>23.09</v>
       </c>
     </row>
     <row r="74">
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1227</v>
+        <v>1231.2</v>
       </c>
       <c r="Q74" t="n">
-        <v>20.06</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="75">
@@ -4710,10 +4710,10 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>2706.4</v>
+        <v>2702.1</v>
       </c>
       <c r="Q75" t="n">
-        <v>-9.73</v>
+        <v>-9.869999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>2706.4</v>
+        <v>2702.1</v>
       </c>
       <c r="Q76" t="n">
-        <v>40.08</v>
+        <v>39.86</v>
       </c>
     </row>
     <row r="77">
@@ -4822,10 +4822,10 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>336.9</v>
+        <v>337.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>28.74</v>
+        <v>28.96</v>
       </c>
     </row>
     <row r="78">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1629.1</v>
+        <v>1629.9</v>
       </c>
       <c r="Q78" t="n">
-        <v>-23.23</v>
+        <v>-23.19</v>
       </c>
     </row>
     <row r="79">
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>399.65</v>
+        <v>400.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>116.61</v>
+        <v>116.94</v>
       </c>
     </row>
     <row r="80">
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>236.01</v>
+        <v>235.92</v>
       </c>
       <c r="Q80" t="n">
-        <v>-16.43</v>
+        <v>-16.46</v>
       </c>
     </row>
     <row r="81">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>5264</v>
+        <v>5276</v>
       </c>
       <c r="Q81" t="n">
-        <v>-6.25</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="82">
@@ -5102,10 +5102,10 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>415.95</v>
+        <v>417.35</v>
       </c>
       <c r="Q82" t="n">
-        <v>-25.3</v>
+        <v>-25.04</v>
       </c>
     </row>
     <row r="83">
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>415.95</v>
+        <v>417.35</v>
       </c>
       <c r="Q83" t="n">
-        <v>128.04</v>
+        <v>128.81</v>
       </c>
     </row>
     <row r="84">
@@ -5214,10 +5214,10 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>288.3</v>
+        <v>288.9</v>
       </c>
       <c r="Q84" t="n">
-        <v>-2.27</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="85">
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>382.95</v>
+        <v>383.8</v>
       </c>
       <c r="Q85" t="n">
-        <v>-8.49</v>
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>382.95</v>
+        <v>383.8</v>
       </c>
       <c r="Q86" t="n">
-        <v>-36.79</v>
+        <v>-36.65</v>
       </c>
     </row>
     <row r="87">
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>382.95</v>
+        <v>383.8</v>
       </c>
       <c r="Q87" t="n">
-        <v>9.07</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="88">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>1377.8</v>
+        <v>1375.7</v>
       </c>
       <c r="Q88" t="n">
-        <v>-10.88</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="89">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>121.56</v>
+        <v>121.94</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>0.96</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="90">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>121.56</v>
+        <v>121.94</v>
       </c>
       <c r="Q90" t="n">
-        <v>-10.55</v>
+        <v>-10.27</v>
       </c>
     </row>
     <row r="91">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>790.7</v>
+        <v>790.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>16.54</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="92">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>790.7</v>
+        <v>790.4</v>
       </c>
       <c r="Q92" t="n">
-        <v>-12.93</v>
+        <v>-12.96</v>
       </c>
     </row>
     <row r="93">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>1842.4</v>
+        <v>1847.3</v>
       </c>
       <c r="Q93" t="n">
-        <v>4.92</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="94">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>1055.1</v>
+        <v>1056.8</v>
       </c>
       <c r="Q94" t="n">
-        <v>-11.56</v>
+        <v>-11.42</v>
       </c>
     </row>
     <row r="95">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="O95" t="n">
-        <v>1055.1</v>
+        <v>1056.8</v>
       </c>
       <c r="Q95" t="n">
-        <v>34.75</v>
+        <v>34.97</v>
       </c>
     </row>
     <row r="96">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>658.25</v>
+        <v>658.95</v>
       </c>
       <c r="Q96" t="n">
-        <v>-7.43</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="97">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>658.25</v>
+        <v>658.95</v>
       </c>
       <c r="Q97" t="n">
-        <v>-24.94</v>
+        <v>-24.86</v>
       </c>
     </row>
     <row r="98">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>658.25</v>
+        <v>658.95</v>
       </c>
       <c r="Q98" t="n">
-        <v>37.65</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="99">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>384.65</v>
+        <v>385.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.26</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="100">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>157.06</v>
+        <v>157.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.32</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="101">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>157.06</v>
+        <v>157.5</v>
       </c>
       <c r="Q101" t="n">
-        <v>27.38</v>
+        <v>27.74</v>
       </c>
     </row>
     <row r="102">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="O102" t="n">
-        <v>1505.7</v>
+        <v>1506.2</v>
       </c>
       <c r="Q102" t="n">
-        <v>-6.19</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="103">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>3597.2</v>
+        <v>3622</v>
       </c>
       <c r="Q103" t="n">
-        <v>42.29</v>
+        <v>43.28</v>
       </c>
     </row>
     <row r="104">
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>1347.7</v>
+        <v>1350.8</v>
       </c>
       <c r="Q104" t="n">
-        <v>33.3</v>
+        <v>33.61</v>
       </c>
     </row>
     <row r="105">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="O105" t="n">
-        <v>1347.7</v>
+        <v>1350.8</v>
       </c>
       <c r="Q105" t="n">
-        <v>58.37</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="106">
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>1347.7</v>
+        <v>1350.8</v>
       </c>
       <c r="Q106" t="n">
-        <v>127.42</v>
+        <v>127.94</v>
       </c>
     </row>
     <row r="107">
@@ -6507,10 +6507,10 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>5430</v>
+        <v>5421</v>
       </c>
       <c r="Q107" t="n">
-        <v>-32.9</v>
+        <v>-33.02</v>
       </c>
     </row>
     <row r="108">
@@ -6563,10 +6563,10 @@
         </is>
       </c>
       <c r="O108" t="n">
-        <v>2995</v>
+        <v>2989.8</v>
       </c>
       <c r="Q108" t="n">
-        <v>37.39</v>
+        <v>37.15</v>
       </c>
     </row>
     <row r="109">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="O109" t="n">
-        <v>1308.6</v>
+        <v>1315.3</v>
       </c>
       <c r="Q109" t="n">
-        <v>38.1</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="110">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>1132</v>
+        <v>1128.7</v>
       </c>
       <c r="Q110" t="n">
-        <v>126.85</v>
+        <v>126.19</v>
       </c>
     </row>
     <row r="111">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>684.8</v>
+        <v>688.45</v>
       </c>
       <c r="Q111" t="n">
-        <v>52.86</v>
+        <v>53.67</v>
       </c>
     </row>
     <row r="112">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>501.75</v>
+        <v>503.15</v>
       </c>
       <c r="Q112" t="n">
-        <v>21.34</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="113">
@@ -6843,10 +6843,10 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>244.99</v>
+        <v>245.1</v>
       </c>
       <c r="Q113" t="n">
-        <v>-11.62</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="114">
@@ -6899,10 +6899,10 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>244.99</v>
+        <v>245.1</v>
       </c>
       <c r="Q114" t="n">
-        <v>23.17</v>
+        <v>23.23</v>
       </c>
     </row>
   </sheetData>

--- a/SKV Sheet_Updated PM.xlsx
+++ b/SKV Sheet_Updated PM.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1795</v>
+        <v>1791.4</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2291</v>
+        <v>2292.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.83</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="4">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1303.8</v>
+        <v>1307.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.06</v>
+        <v>88.62</v>
       </c>
     </row>
     <row r="5">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>7800.5</v>
+        <v>7788</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.28</v>
+        <v>59.03</v>
       </c>
     </row>
     <row r="6">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>119.85</v>
+        <v>119.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.20999999999999</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>8217.5</v>
+        <v>8209.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.9</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="8">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>8217.5</v>
+        <v>8209.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>68.90000000000001</v>
+        <v>68.73</v>
       </c>
     </row>
     <row r="9">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>8217.5</v>
+        <v>8209.5</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>-0.75</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="10">
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1936.7</v>
+        <v>1931.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.04</v>
+        <v>41.66</v>
       </c>
     </row>
     <row r="11">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>243.38</v>
+        <v>243.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>-17.6</v>
+        <v>-17.67</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>243.38</v>
+        <v>243.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.52</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="13">
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1177.9</v>
+        <v>1174.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>-14.41</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="19">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>1873.5</v>
+        <v>1876.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.72</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="20">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>1873.5</v>
+        <v>1876.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.98</v>
+        <v>122.3</v>
       </c>
     </row>
     <row r="21">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>222.84</v>
+        <v>222.37</v>
       </c>
       <c r="Q21" t="n">
-        <v>-24.17</v>
+        <v>-24.33</v>
       </c>
     </row>
     <row r="22">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>222.84</v>
+        <v>222.37</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.42</v>
+        <v>119.95</v>
       </c>
     </row>
     <row r="23">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>222.84</v>
+        <v>222.37</v>
       </c>
       <c r="Q23" t="n">
-        <v>155.55</v>
+        <v>155.01</v>
       </c>
     </row>
     <row r="24">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>321.05</v>
+        <v>320.05</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.45999999999999</v>
+        <v>82.89</v>
       </c>
     </row>
     <row r="25">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2481.8</v>
+        <v>2470.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.16</v>
+        <v>78.37</v>
       </c>
     </row>
     <row r="26">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2481.8</v>
+        <v>2470.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.1</v>
+        <v>457.64</v>
       </c>
     </row>
     <row r="27">
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2481.8</v>
+        <v>2470.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.33</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="28">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2481.8</v>
+        <v>2470.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>1676.52</v>
+        <v>1668.72</v>
       </c>
     </row>
     <row r="29">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>109.78</v>
+        <v>109.66</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.45</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="30">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>109.78</v>
+        <v>109.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>-13.69</v>
+        <v>-13.79</v>
       </c>
     </row>
     <row r="31">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>109.78</v>
+        <v>109.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.94</v>
+        <v>51.78</v>
       </c>
     </row>
     <row r="32">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>109.78</v>
+        <v>109.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="33">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1625.3</v>
+        <v>1636</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.56</v>
+        <v>45.51</v>
       </c>
     </row>
     <row r="34">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1625.3</v>
+        <v>1636</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.56999999999999</v>
+        <v>89.81</v>
       </c>
     </row>
     <row r="35">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2172.9</v>
+        <v>2169.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>-27.45</v>
+        <v>-27.57</v>
       </c>
     </row>
     <row r="36">
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2319</v>
+        <v>2317.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.27</v>
+        <v>136.09</v>
       </c>
     </row>
     <row r="37">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>3789.9</v>
+        <v>3781.8</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>-1.61</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="38">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>3789.9</v>
+        <v>3781.8</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.33</v>
+        <v>85.93000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>6125</v>
+        <v>6123</v>
       </c>
       <c r="Q39" t="n">
-        <v>-12.15</v>
+        <v>-12.18</v>
       </c>
     </row>
     <row r="40">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1252.6</v>
+        <v>1251.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.96</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="41">
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1252.6</v>
+        <v>1251.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.47</v>
+        <v>37.35</v>
       </c>
     </row>
     <row r="42">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>5735.5</v>
+        <v>5731</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.86</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="43">
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>196.03</v>
+        <v>195.99</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.539999999999999</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="44">
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>196.03</v>
+        <v>195.99</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.02</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="45">
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>173.48</v>
+        <v>172.98</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.95</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="46">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>173.48</v>
+        <v>172.98</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.13</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="47">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>173.48</v>
+        <v>172.98</v>
       </c>
       <c r="Q47" t="n">
-        <v>-9.789999999999999</v>
+        <v>-10.05</v>
       </c>
     </row>
     <row r="48">
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1194.9</v>
+        <v>1189.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>12.99</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="49">
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>1963.3</v>
+        <v>1959</v>
       </c>
       <c r="Q49" t="n">
-        <v>17.61</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="50">
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>4495.2</v>
+        <v>4492.1</v>
       </c>
       <c r="Q50" t="n">
-        <v>-15.29</v>
+        <v>-15.35</v>
       </c>
     </row>
     <row r="51">
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>1478.4</v>
+        <v>1474.1</v>
       </c>
       <c r="Q51" t="n">
-        <v>34.03</v>
+        <v>33.64</v>
       </c>
     </row>
     <row r="52">
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="Q52" t="n">
-        <v>68.12</v>
+        <v>68.09</v>
       </c>
     </row>
     <row r="53">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="Q53" t="n">
-        <v>209.12</v>
+        <v>209.06</v>
       </c>
     </row>
     <row r="54">
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="Q54" t="n">
-        <v>9.029999999999999</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="55">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>786.35</v>
+        <v>788.9</v>
       </c>
       <c r="Q55" t="n">
-        <v>68.73999999999999</v>
+        <v>69.29000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>4753.5</v>
+        <v>4753.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>49.57</v>
+        <v>49.55</v>
       </c>
     </row>
     <row r="57">
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>398.5</v>
+        <v>397.15</v>
       </c>
       <c r="Q57" t="n">
-        <v>26.11</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="58">
@@ -3753,10 +3753,10 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>2497.7</v>
+        <v>2500.2</v>
       </c>
       <c r="Q58" t="n">
-        <v>6.62</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="59">
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>1428.2</v>
+        <v>1426.2</v>
       </c>
       <c r="Q59" t="n">
-        <v>17.35</v>
+        <v>17.19</v>
       </c>
     </row>
     <row r="60">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>770.95</v>
+        <v>767.3</v>
       </c>
       <c r="Q60" t="n">
-        <v>33.15</v>
+        <v>32.52</v>
       </c>
     </row>
     <row r="61">
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>770.95</v>
+        <v>767.3</v>
       </c>
       <c r="Q61" t="n">
-        <v>117.78</v>
+        <v>116.75</v>
       </c>
     </row>
     <row r="62">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>770.95</v>
+        <v>767.3</v>
       </c>
       <c r="Q62" t="n">
-        <v>23.83</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="63">
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>770.95</v>
+        <v>767.3</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>5.93</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="64">
@@ -4094,10 +4094,10 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>777.45</v>
+        <v>777.85</v>
       </c>
       <c r="Q64" t="n">
-        <v>11.94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>1448.9</v>
+        <v>1455.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>-2.04</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="66">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>979.6</v>
+        <v>976.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.36</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="67">
@@ -4262,10 +4262,10 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>327.45</v>
+        <v>327.05</v>
       </c>
       <c r="Q67" t="n">
-        <v>6.49</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="68">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>533</v>
+        <v>531.2</v>
       </c>
       <c r="Q68" t="n">
-        <v>10.81</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="69">
@@ -4374,10 +4374,10 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>1048</v>
+        <v>1047.3</v>
       </c>
       <c r="Q69" t="n">
-        <v>18.15</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="70">
@@ -4430,10 +4430,10 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>523.1</v>
+        <v>530.2</v>
       </c>
       <c r="Q70" t="n">
-        <v>187.26</v>
+        <v>191.16</v>
       </c>
     </row>
     <row r="71">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>1236.1</v>
+        <v>1233.1</v>
       </c>
       <c r="Q71" t="n">
-        <v>-6.5</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="72">
@@ -4542,10 +4542,10 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>3674.9</v>
+        <v>3672.6</v>
       </c>
       <c r="Q72" t="n">
-        <v>34.51</v>
+        <v>34.43</v>
       </c>
     </row>
     <row r="73">
@@ -4598,10 +4598,10 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>12863</v>
+        <v>12859</v>
       </c>
       <c r="Q73" t="n">
-        <v>23.09</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="74">
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1231.2</v>
+        <v>1228.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>20.47</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="75">
@@ -4710,10 +4710,10 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>2702.1</v>
+        <v>2717.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>-9.869999999999999</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>2702.1</v>
+        <v>2717.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>39.86</v>
+        <v>40.66</v>
       </c>
     </row>
     <row r="77">
@@ -4822,10 +4822,10 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>337.5</v>
+        <v>337.1</v>
       </c>
       <c r="Q77" t="n">
-        <v>28.96</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="78">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1629.9</v>
+        <v>1622.9</v>
       </c>
       <c r="Q78" t="n">
-        <v>-23.19</v>
+        <v>-23.52</v>
       </c>
     </row>
     <row r="79">
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>400.25</v>
+        <v>399.65</v>
       </c>
       <c r="Q79" t="n">
-        <v>116.94</v>
+        <v>116.61</v>
       </c>
     </row>
     <row r="80">
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>235.92</v>
+        <v>235.39</v>
       </c>
       <c r="Q80" t="n">
-        <v>-16.46</v>
+        <v>-16.65</v>
       </c>
     </row>
     <row r="81">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>5276</v>
+        <v>5274.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>-6.04</v>
+        <v>-6.07</v>
       </c>
     </row>
     <row r="82">
@@ -5102,10 +5102,10 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>417.35</v>
+        <v>417.3</v>
       </c>
       <c r="Q82" t="n">
-        <v>-25.04</v>
+        <v>-25.05</v>
       </c>
     </row>
     <row r="83">
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>417.35</v>
+        <v>417.3</v>
       </c>
       <c r="Q83" t="n">
-        <v>128.81</v>
+        <v>128.78</v>
       </c>
     </row>
     <row r="84">
@@ -5214,10 +5214,10 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>288.9</v>
+        <v>289.15</v>
       </c>
       <c r="Q84" t="n">
-        <v>-2.07</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="85">
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>383.8</v>
+        <v>383.1</v>
       </c>
       <c r="Q85" t="n">
-        <v>-8.289999999999999</v>
+        <v>-8.460000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>383.8</v>
+        <v>383.1</v>
       </c>
       <c r="Q86" t="n">
-        <v>-36.65</v>
+        <v>-36.76</v>
       </c>
     </row>
     <row r="87">
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>383.8</v>
+        <v>383.1</v>
       </c>
       <c r="Q87" t="n">
-        <v>9.31</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>1375.7</v>
+        <v>1375</v>
       </c>
       <c r="Q88" t="n">
-        <v>-11.02</v>
+        <v>-11.06</v>
       </c>
     </row>
     <row r="89">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>121.94</v>
+        <v>121.59</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>1.28</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="90">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>121.94</v>
+        <v>121.59</v>
       </c>
       <c r="Q90" t="n">
-        <v>-10.27</v>
+        <v>-10.53</v>
       </c>
     </row>
     <row r="91">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>790.4</v>
+        <v>788.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>16.49</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="92">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>790.4</v>
+        <v>788.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>-12.96</v>
+        <v>-13.17</v>
       </c>
     </row>
     <row r="93">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>1847.3</v>
+        <v>1840.6</v>
       </c>
       <c r="Q93" t="n">
-        <v>5.2</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="94">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>1056.8</v>
+        <v>1054.1</v>
       </c>
       <c r="Q94" t="n">
-        <v>-11.42</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="95">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="O95" t="n">
-        <v>1056.8</v>
+        <v>1054.1</v>
       </c>
       <c r="Q95" t="n">
-        <v>34.97</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="96">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>658.95</v>
+        <v>658.25</v>
       </c>
       <c r="Q96" t="n">
-        <v>-7.33</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="97">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>658.95</v>
+        <v>658.25</v>
       </c>
       <c r="Q97" t="n">
-        <v>-24.86</v>
+        <v>-24.94</v>
       </c>
     </row>
     <row r="98">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>658.95</v>
+        <v>658.25</v>
       </c>
       <c r="Q98" t="n">
-        <v>37.8</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="99">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>385.75</v>
+        <v>385.15</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="100">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>157.5</v>
+        <v>157.15</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="101">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>157.5</v>
+        <v>157.15</v>
       </c>
       <c r="Q101" t="n">
-        <v>27.74</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="102">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="O102" t="n">
-        <v>1506.2</v>
+        <v>1515.1</v>
       </c>
       <c r="Q102" t="n">
-        <v>-6.16</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="103">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>3622</v>
+        <v>3629</v>
       </c>
       <c r="Q103" t="n">
-        <v>43.28</v>
+        <v>43.55</v>
       </c>
     </row>
     <row r="104">
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>1350.8</v>
+        <v>1350</v>
       </c>
       <c r="Q104" t="n">
-        <v>33.61</v>
+        <v>33.53</v>
       </c>
     </row>
     <row r="105">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="O105" t="n">
-        <v>1350.8</v>
+        <v>1350</v>
       </c>
       <c r="Q105" t="n">
-        <v>58.73</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="106">
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>1350.8</v>
+        <v>1350</v>
       </c>
       <c r="Q106" t="n">
-        <v>127.94</v>
+        <v>127.81</v>
       </c>
     </row>
     <row r="107">
@@ -6507,10 +6507,10 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>5421</v>
+        <v>5403</v>
       </c>
       <c r="Q107" t="n">
-        <v>-33.02</v>
+        <v>-33.24</v>
       </c>
     </row>
     <row r="108">
@@ -6563,10 +6563,10 @@
         </is>
       </c>
       <c r="O108" t="n">
-        <v>2989.8</v>
+        <v>2996.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>37.15</v>
+        <v>37.45</v>
       </c>
     </row>
     <row r="109">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="O109" t="n">
-        <v>1315.3</v>
+        <v>1316.1</v>
       </c>
       <c r="Q109" t="n">
-        <v>38.8</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="110">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>1128.7</v>
+        <v>1128.5</v>
       </c>
       <c r="Q110" t="n">
-        <v>126.19</v>
+        <v>126.15</v>
       </c>
     </row>
     <row r="111">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>688.45</v>
+        <v>686.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>53.67</v>
+        <v>53.24</v>
       </c>
     </row>
     <row r="112">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>503.15</v>
+        <v>500.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>21.68</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="113">
@@ -6843,10 +6843,10 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>245.1</v>
+        <v>246.04</v>
       </c>
       <c r="Q113" t="n">
-        <v>-11.58</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="114">
@@ -6899,10 +6899,10 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>245.1</v>
+        <v>246.04</v>
       </c>
       <c r="Q114" t="n">
-        <v>23.23</v>
+        <v>23.7</v>
       </c>
     </row>
   </sheetData>

--- a/SKV Sheet_Updated PM.xlsx
+++ b/SKV Sheet_Updated PM.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1791.4</v>
+        <v>1788</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.04</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2292.2</v>
+        <v>2291.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.9</v>
+        <v>16.84</v>
       </c>
     </row>
     <row r="4">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1307.7</v>
+        <v>1310.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.62</v>
+        <v>89.01000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>7788</v>
+        <v>7806</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.03</v>
+        <v>59.39</v>
       </c>
     </row>
     <row r="6">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>119.63</v>
+        <v>119.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>67.90000000000001</v>
+        <v>67.62</v>
       </c>
     </row>
     <row r="7">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>8209.5</v>
+        <v>8213.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.77</v>
+        <v>26.83</v>
       </c>
     </row>
     <row r="8">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>8209.5</v>
+        <v>8213.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>68.73</v>
+        <v>68.81</v>
       </c>
     </row>
     <row r="9">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>8209.5</v>
+        <v>8213.5</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>-0.85</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="10">
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1931.6</v>
+        <v>1926.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.66</v>
+        <v>41.32</v>
       </c>
     </row>
     <row r="11">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>243.15</v>
+        <v>243.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>-17.67</v>
+        <v>-17.71</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>243.15</v>
+        <v>243.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="13">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>383.6</v>
+        <v>383.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.130000000000001</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>383.6</v>
+        <v>383.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.65</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="15">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>383.6</v>
+        <v>383.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.34999999999999</v>
+        <v>80.42</v>
       </c>
     </row>
     <row r="16">
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>383.6</v>
+        <v>383.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>-10.1</v>
+        <v>-10.07</v>
       </c>
     </row>
     <row r="17">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>383.6</v>
+        <v>383.75</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="18">
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1174.9</v>
+        <v>1176.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>-14.63</v>
+        <v>-14.53</v>
       </c>
     </row>
     <row r="19">
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>1876.2</v>
+        <v>1876.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.9</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="20">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>1876.2</v>
+        <v>1876.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.3</v>
+        <v>122.33</v>
       </c>
     </row>
     <row r="21">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>222.37</v>
+        <v>222.21</v>
       </c>
       <c r="Q21" t="n">
-        <v>-24.33</v>
+        <v>-24.38</v>
       </c>
     </row>
     <row r="22">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>222.37</v>
+        <v>222.21</v>
       </c>
       <c r="Q22" t="n">
-        <v>119.95</v>
+        <v>119.79</v>
       </c>
     </row>
     <row r="23">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>222.37</v>
+        <v>222.21</v>
       </c>
       <c r="Q23" t="n">
-        <v>155.01</v>
+        <v>154.83</v>
       </c>
     </row>
     <row r="24">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>320.05</v>
+        <v>319.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.89</v>
+        <v>82.63</v>
       </c>
     </row>
     <row r="25">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2470.9</v>
+        <v>2475</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.37</v>
+        <v>78.67</v>
       </c>
     </row>
     <row r="26">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2470.9</v>
+        <v>2475</v>
       </c>
       <c r="Q26" t="n">
-        <v>457.64</v>
+        <v>458.56</v>
       </c>
     </row>
     <row r="27">
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2470.9</v>
+        <v>2475</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.77</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="28">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2470.9</v>
+        <v>2475</v>
       </c>
       <c r="Q28" t="n">
-        <v>1668.72</v>
+        <v>1671.65</v>
       </c>
     </row>
     <row r="29">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>109.66</v>
+        <v>109.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="30">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>109.66</v>
+        <v>109.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>-13.79</v>
+        <v>-13.76</v>
       </c>
     </row>
     <row r="31">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>109.66</v>
+        <v>109.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.78</v>
+        <v>51.83</v>
       </c>
     </row>
     <row r="32">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>109.66</v>
+        <v>109.7</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="33">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1636</v>
+        <v>1645.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.51</v>
+        <v>46.38</v>
       </c>
     </row>
     <row r="34">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>1636</v>
+        <v>1645.8</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.81</v>
+        <v>90.95</v>
       </c>
     </row>
     <row r="35">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2169.2</v>
+        <v>2167.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>-27.57</v>
+        <v>-27.64</v>
       </c>
     </row>
     <row r="36">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>3781.8</v>
+        <v>3788.9</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>-1.82</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="38">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>3781.8</v>
+        <v>3788.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>85.93000000000001</v>
+        <v>86.28</v>
       </c>
     </row>
     <row r="39">
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>6123</v>
+        <v>6113.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>-12.18</v>
+        <v>-12.31</v>
       </c>
     </row>
     <row r="40">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1251.5</v>
+        <v>1257.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.85</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="41">
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1251.5</v>
+        <v>1257.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.35</v>
+        <v>38.03</v>
       </c>
     </row>
     <row r="42">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>5731</v>
+        <v>5731.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.7</v>
+        <v>100.72</v>
       </c>
     </row>
     <row r="43">
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>195.99</v>
+        <v>195.84</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.52</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="44">
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>195.99</v>
+        <v>195.84</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.99</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="45">
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>172.98</v>
+        <v>173.2</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.59</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="46">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>172.98</v>
+        <v>173.2</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.7</v>
+        <v>49.89</v>
       </c>
     </row>
     <row r="47">
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>172.98</v>
+        <v>173.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>-10.05</v>
+        <v>-9.93</v>
       </c>
     </row>
     <row r="48">
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1189.3</v>
+        <v>1191</v>
       </c>
       <c r="Q48" t="n">
-        <v>12.46</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="49">
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>1959</v>
+        <v>1954.9</v>
       </c>
       <c r="Q49" t="n">
-        <v>17.35</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="50">
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>4492.1</v>
+        <v>4492</v>
       </c>
       <c r="Q50" t="n">
         <v>-15.35</v>
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>1474.1</v>
+        <v>1477</v>
       </c>
       <c r="Q51" t="n">
-        <v>33.64</v>
+        <v>33.91</v>
       </c>
     </row>
     <row r="52">
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>5458</v>
+        <v>5456</v>
       </c>
       <c r="Q52" t="n">
-        <v>68.09</v>
+        <v>68.03</v>
       </c>
     </row>
     <row r="53">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>5458</v>
+        <v>5456</v>
       </c>
       <c r="Q53" t="n">
-        <v>209.06</v>
+        <v>208.95</v>
       </c>
     </row>
     <row r="54">
@@ -3529,10 +3529,10 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>5458</v>
+        <v>5456</v>
       </c>
       <c r="Q54" t="n">
-        <v>9.01</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>788.9</v>
+        <v>788.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>69.29000000000001</v>
+        <v>69.16</v>
       </c>
     </row>
     <row r="56">
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>4753.1</v>
+        <v>4741.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>49.55</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="57">
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>397.15</v>
+        <v>396.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>25.68</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="58">
@@ -3753,10 +3753,10 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>2500.2</v>
+        <v>2505.6</v>
       </c>
       <c r="Q58" t="n">
-        <v>6.73</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="59">
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>1426.2</v>
+        <v>1425.6</v>
       </c>
       <c r="Q59" t="n">
-        <v>17.19</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="60">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>767.3</v>
+        <v>768.9</v>
       </c>
       <c r="Q60" t="n">
-        <v>32.52</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="61">
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>767.3</v>
+        <v>768.9</v>
       </c>
       <c r="Q61" t="n">
-        <v>116.75</v>
+        <v>117.2</v>
       </c>
     </row>
     <row r="62">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>767.3</v>
+        <v>768.9</v>
       </c>
       <c r="Q62" t="n">
-        <v>23.24</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="63">
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>767.3</v>
+        <v>768.9</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>5.43</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="64">
@@ -4094,10 +4094,10 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>777.85</v>
+        <v>774.3</v>
       </c>
       <c r="Q64" t="n">
-        <v>12</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="65">
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>1455.5</v>
+        <v>1468</v>
       </c>
       <c r="Q65" t="n">
-        <v>-1.59</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="66">
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>976.5</v>
+        <v>973.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.03</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="67">
@@ -4262,10 +4262,10 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>327.05</v>
+        <v>327.15</v>
       </c>
       <c r="Q67" t="n">
-        <v>6.36</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="68">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>531.2</v>
+        <v>529.1</v>
       </c>
       <c r="Q68" t="n">
-        <v>10.44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -4374,10 +4374,10 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>1047.3</v>
+        <v>1047.9</v>
       </c>
       <c r="Q69" t="n">
-        <v>18.07</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="70">
@@ -4430,10 +4430,10 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>530.2</v>
+        <v>527.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>191.16</v>
+        <v>189.68</v>
       </c>
     </row>
     <row r="71">
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>1233.1</v>
+        <v>1236.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>-6.72</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="72">
@@ -4542,10 +4542,10 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>3672.6</v>
+        <v>3663</v>
       </c>
       <c r="Q72" t="n">
-        <v>34.43</v>
+        <v>34.08</v>
       </c>
     </row>
     <row r="73">
@@ -4598,10 +4598,10 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>12859</v>
+        <v>12860</v>
       </c>
       <c r="Q73" t="n">
-        <v>23.05</v>
+        <v>23.06</v>
       </c>
     </row>
     <row r="74">
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1228.5</v>
+        <v>1232.9</v>
       </c>
       <c r="Q74" t="n">
-        <v>20.21</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="75">
@@ -4710,10 +4710,10 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>2717.5</v>
+        <v>2740.6</v>
       </c>
       <c r="Q75" t="n">
-        <v>-9.359999999999999</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="76">
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>2717.5</v>
+        <v>2740.6</v>
       </c>
       <c r="Q76" t="n">
-        <v>40.66</v>
+        <v>41.85</v>
       </c>
     </row>
     <row r="77">
@@ -4822,10 +4822,10 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>337.1</v>
+        <v>337.2</v>
       </c>
       <c r="Q77" t="n">
-        <v>28.81</v>
+        <v>28.85</v>
       </c>
     </row>
     <row r="78">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1622.9</v>
+        <v>1623.1</v>
       </c>
       <c r="Q78" t="n">
-        <v>-23.52</v>
+        <v>-23.51</v>
       </c>
     </row>
     <row r="79">
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>399.65</v>
+        <v>399.85</v>
       </c>
       <c r="Q79" t="n">
-        <v>116.61</v>
+        <v>116.72</v>
       </c>
     </row>
     <row r="80">
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>235.39</v>
+        <v>236.17</v>
       </c>
       <c r="Q80" t="n">
-        <v>-16.65</v>
+        <v>-16.37</v>
       </c>
     </row>
     <row r="81">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>5274.5</v>
+        <v>5324</v>
       </c>
       <c r="Q81" t="n">
-        <v>-6.07</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="82">
@@ -5102,10 +5102,10 @@
         </is>
       </c>
       <c r="O82" t="n">
-        <v>417.3</v>
+        <v>417.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>-25.05</v>
+        <v>-25.04</v>
       </c>
     </row>
     <row r="83">
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="O83" t="n">
-        <v>417.3</v>
+        <v>417.4</v>
       </c>
       <c r="Q83" t="n">
-        <v>128.78</v>
+        <v>128.84</v>
       </c>
     </row>
     <row r="84">
@@ -5214,10 +5214,10 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>289.15</v>
+        <v>289.8</v>
       </c>
       <c r="Q84" t="n">
-        <v>-1.98</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="85">
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>383.1</v>
+        <v>383.15</v>
       </c>
       <c r="Q85" t="n">
-        <v>-8.460000000000001</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>383.1</v>
+        <v>383.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>-36.76</v>
+        <v>-36.75</v>
       </c>
     </row>
     <row r="87">
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>383.1</v>
+        <v>383.15</v>
       </c>
       <c r="Q87" t="n">
-        <v>9.109999999999999</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>1375</v>
+        <v>1376.9</v>
       </c>
       <c r="Q88" t="n">
-        <v>-11.06</v>
+        <v>-10.94</v>
       </c>
     </row>
     <row r="89">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>121.59</v>
+        <v>121.6</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="O90" t="n">
-        <v>121.59</v>
+        <v>121.6</v>
       </c>
       <c r="Q90" t="n">
-        <v>-10.53</v>
+        <v>-10.52</v>
       </c>
     </row>
     <row r="91">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="O91" t="n">
-        <v>788.5</v>
+        <v>788.35</v>
       </c>
       <c r="Q91" t="n">
-        <v>16.21</v>
+        <v>16.19</v>
       </c>
     </row>
     <row r="92">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>788.5</v>
+        <v>788.35</v>
       </c>
       <c r="Q92" t="n">
-        <v>-13.17</v>
+        <v>-13.19</v>
       </c>
     </row>
     <row r="93">
@@ -5723,7 +5723,7 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>1840.6</v>
+        <v>1840.7</v>
       </c>
       <c r="Q93" t="n">
         <v>4.82</v>
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>1054.1</v>
+        <v>1055</v>
       </c>
       <c r="Q94" t="n">
-        <v>-11.64</v>
+        <v>-11.57</v>
       </c>
     </row>
     <row r="95">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="O95" t="n">
-        <v>1054.1</v>
+        <v>1055</v>
       </c>
       <c r="Q95" t="n">
-        <v>34.62</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="96">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>658.25</v>
+        <v>659.25</v>
       </c>
       <c r="Q96" t="n">
-        <v>-7.43</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="97">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>658.25</v>
+        <v>659.25</v>
       </c>
       <c r="Q97" t="n">
-        <v>-24.94</v>
+        <v>-24.83</v>
       </c>
     </row>
     <row r="98">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>658.25</v>
+        <v>659.25</v>
       </c>
       <c r="Q98" t="n">
-        <v>37.65</v>
+        <v>37.86</v>
       </c>
     </row>
     <row r="99">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="O99" t="n">
-        <v>385.15</v>
+        <v>385.2</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="100">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>157.15</v>
+        <v>157.29</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.38</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="101">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>157.15</v>
+        <v>157.29</v>
       </c>
       <c r="Q101" t="n">
-        <v>27.45</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="102">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="O102" t="n">
-        <v>1515.1</v>
+        <v>1525.1</v>
       </c>
       <c r="Q102" t="n">
-        <v>-5.6</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="103">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>3629</v>
+        <v>3631</v>
       </c>
       <c r="Q103" t="n">
-        <v>43.55</v>
+        <v>43.63</v>
       </c>
     </row>
     <row r="104">
@@ -6507,10 +6507,10 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="Q107" t="n">
-        <v>-33.24</v>
+        <v>-33.26</v>
       </c>
     </row>
     <row r="108">
@@ -6563,10 +6563,10 @@
         </is>
       </c>
       <c r="O108" t="n">
-        <v>2996.5</v>
+        <v>2998.6</v>
       </c>
       <c r="Q108" t="n">
-        <v>37.45</v>
+        <v>37.55</v>
       </c>
     </row>
     <row r="109">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="O109" t="n">
-        <v>1316.1</v>
+        <v>1320</v>
       </c>
       <c r="Q109" t="n">
-        <v>38.89</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="110">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="O110" t="n">
-        <v>1128.5</v>
+        <v>1130</v>
       </c>
       <c r="Q110" t="n">
-        <v>126.15</v>
+        <v>126.45</v>
       </c>
     </row>
     <row r="111">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>686.5</v>
+        <v>687.25</v>
       </c>
       <c r="Q111" t="n">
-        <v>53.24</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="112">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="O112" t="n">
-        <v>500.5</v>
+        <v>500.1</v>
       </c>
       <c r="Q112" t="n">
-        <v>21.04</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="113">
@@ -6843,10 +6843,10 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>246.04</v>
+        <v>247.3</v>
       </c>
       <c r="Q113" t="n">
-        <v>-11.24</v>
+        <v>-10.79</v>
       </c>
     </row>
     <row r="114">
@@ -6899,10 +6899,10 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>246.04</v>
+        <v>247.3</v>
       </c>
       <c r="Q114" t="n">
-        <v>23.7</v>
+        <v>24.33</v>
       </c>
     </row>
   </sheetData>
